--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{669CE481-8718-4BD9-BE28-F18BAD9233CA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C7C9D68B-5280-4E5F-8A91-B69F55881021}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
     <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -57,7 +57,16 @@
     <t>None</t>
   </si>
   <si>
-    <t>null</t>
+    <t>Espresso Bar, 603 D St, 99501, (907) 279-7622</t>
+  </si>
+  <si>
+    <t>Anchorage</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>US</t>
   </si>
 </sst>
 </file>
@@ -420,7 +429,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +439,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="40.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -461,13 +470,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>

--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneeshc\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{669CE481-8718-4BD9-BE28-F18BAD9233CA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{A32D1AF2-7354-4F8D-98E4-88022225BF52}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
     <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Columbia</t>
   </si>
 </sst>
 </file>
@@ -461,13 +470,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>

--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneeshc\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{A32D1AF2-7354-4F8D-98E4-88022225BF52}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DD4DB50B-9ACB-465C-9799-72EA89D94398}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
+    <workbookView windowHeight="7875" windowWidth="15375" xWindow="4935" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="2040"/>
   </bookViews>
   <sheets>
     <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
@@ -57,16 +57,16 @@
     <t>None</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>Columbia</t>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Casella Waste Systems, 49 Sword Street, 01501, (508) 869-4077</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,16 +470,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneeshc\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C7C9D68B-5280-4E5F-8A91-B69F55881021}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{4585F38C-2151-40C4-A3EA-89B5C47A2B7E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
     <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -57,16 +57,13 @@
     <t>None</t>
   </si>
   <si>
-    <t>Espresso Bar, 603 D St, 99501, (907) 279-7622</t>
-  </si>
-  <si>
-    <t>Anchorage</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -429,7 +426,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,16 +467,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C7C9D68B-5280-4E5F-8A91-B69F55881021}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DA46DCB9-2D8E-4950-AF63-19854478272C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
     <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
+    <sheet name="Zoom" r:id="rId2" sheetId="2"/>
+    <sheet name="PDF" r:id="rId3" sheetId="3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -57,16 +53,31 @@
     <t>None</t>
   </si>
   <si>
-    <t>Espresso Bar, 603 D St, 99501, (907) 279-7622</t>
-  </si>
-  <si>
-    <t>Anchorage</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>US</t>
+    <t>null</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>Day_DD</t>
+  </si>
+  <si>
+    <t>Month_MMM</t>
+  </si>
+  <si>
+    <t>Year_YYYY</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>AE</t>
   </si>
 </sst>
 </file>
@@ -109,9 +120,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -436,10 +452,9 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="66.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -470,13 +485,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -486,4 +501,129 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D3" s="3">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{DA46DCB9-2D8E-4950-AF63-19854478272C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D40E50A7-6A6E-4625-8DAD-5FCA498AEBEA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
+    <workbookView activeTab="4" windowHeight="10920" windowWidth="20490" xWindow="0" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
     <sheet name="Zoom" r:id="rId2" sheetId="2"/>
     <sheet name="PDF" r:id="rId3" sheetId="3"/>
+    <sheet name="SA_Filters" r:id="rId4" sheetId="4"/>
+    <sheet name="SA_Advanced_Filters" r:id="rId5" sheetId="5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -78,6 +80,48 @@
   </si>
   <si>
     <t>AE</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Owner Response</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
+  </si>
+  <si>
+    <t>Sentiment Category</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Atmosphere</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>manage</t>
   </si>
 </sst>
 </file>
@@ -85,7 +129,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +142,14 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,11 +172,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -444,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +561,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,16 +570,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -582,22 +635,22 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+      <selection activeCell="A2" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -626,4 +679,143 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" r="1" s="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+</worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{D40E50A7-6A6E-4625-8DAD-5FCA498AEBEA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{531628FA-8206-4504-805C-EF008F924D8B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="4" windowHeight="10920" windowWidth="20490" xWindow="0" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="0"/>
+    <workbookView windowHeight="10920" windowWidth="20490" xWindow="0" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
@@ -79,9 +79,6 @@
     <t>November</t>
   </si>
   <si>
-    <t>AE</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>manage</t>
+  </si>
+  <si>
+    <t>US</t>
   </si>
 </sst>
 </file>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -751,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -769,49 +769,49 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{531628FA-8206-4504-805C-EF008F924D8B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{ED7C3EBC-92AE-4C8B-92C3-AAA12E1D6E57}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView windowHeight="10920" windowWidth="20490" xWindow="0" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="0"/>
+    <workbookView windowHeight="10920" windowWidth="20445" xWindow="45" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -116,12 +116,6 @@
   </si>
   <si>
     <t>Good</t>
-  </si>
-  <si>
-    <t>manage</t>
-  </si>
-  <si>
-    <t>US</t>
   </si>
 </sst>
 </file>
@@ -538,7 +532,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -752,7 +746,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +799,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>

--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{ED7C3EBC-92AE-4C8B-92C3-AAA12E1D6E57}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D806ED13-FC59-432A-81D7-108FB05B4B20}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView windowHeight="10920" windowWidth="20445" xWindow="45" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="0"/>
+    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
-    <sheet name="Zoom" r:id="rId2" sheetId="2"/>
-    <sheet name="PDF" r:id="rId3" sheetId="3"/>
-    <sheet name="SA_Filters" r:id="rId4" sheetId="4"/>
-    <sheet name="SA_Advanced_Filters" r:id="rId5" sheetId="5"/>
+    <sheet name="Sheet1" r:id="rId2" sheetId="6"/>
+    <sheet name="Zoom" r:id="rId3" sheetId="2"/>
+    <sheet name="PDF" r:id="rId4" sheetId="3"/>
+    <sheet name="SA_Filters" r:id="rId5" sheetId="4"/>
+    <sheet name="SA_Advanced_Filters" r:id="rId6" sheetId="5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -116,6 +117,18 @@
   </si>
   <si>
     <t>Good</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>The Little Beet, 19501 Biscayne Blvd, Treats Food Hall, Floor 3, 33180, +1 305-359-5808</t>
   </si>
 </sst>
 </file>
@@ -492,16 +505,16 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
     <col min="3" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="66.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -528,19 +541,19 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -551,6 +564,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -624,7 +670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -675,7 +721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -741,7 +787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
   <dimension ref="A1:J2"/>
   <sheetViews>

--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,37 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abinaya\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C7C9D68B-5280-4E5F-8A91-B69F55881021}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8BC30246-6FCF-4FB6-97CC-80A9C43B41E3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
+    <workbookView activeTab="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" r:id="rId2" sheetId="2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -67,6 +62,12 @@
   </si>
   <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -74,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +88,12 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF393939"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,9 +116,10 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -428,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,4 +494,68 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF188180-7FBA-422A-8B4F-79B4DFA3F3C5}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="84.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+</worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{D806ED13-FC59-432A-81D7-108FB05B4B20}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5D1606-52F2-41B4-AD6D-1DB28716CAB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet1" r:id="rId2" sheetId="6"/>
-    <sheet name="Zoom" r:id="rId3" sheetId="2"/>
-    <sheet name="PDF" r:id="rId4" sheetId="3"/>
-    <sheet name="SA_Filters" r:id="rId5" sheetId="4"/>
-    <sheet name="SA_Advanced_Filters" r:id="rId6" sheetId="5"/>
+    <sheet name="TPSEE" sheetId="1" r:id="rId1"/>
+    <sheet name="Duplicate_Management" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Zoom" sheetId="2" r:id="rId4"/>
+    <sheet name="PDF" sheetId="3" r:id="rId5"/>
+    <sheet name="SA_Filters" sheetId="4" r:id="rId6"/>
+    <sheet name="SA_Advanced_Filters" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -129,13 +130,24 @@
   </si>
   <si>
     <t>The Little Beet, 19501 Biscayne Blvd, Treats Food Hall, Floor 3, 33180, +1 305-359-5808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number </t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>+1 610-488-2411</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/?q=place_id:ChIJMQ6lFrfW1IkRFe1flYsZ06A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,23 +189,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -210,10 +222,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -248,7 +260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -300,7 +312,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -411,21 +423,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -442,7 +454,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -494,27 +506,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -558,14 +570,50 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -573,7 +621,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
+    <col min="4" max="4" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -591,14 +639,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
-  <dimension ref="A1:G3"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -606,7 +654,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -666,13 +714,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
-  <dimension ref="A1:G2"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:F2"/>
@@ -717,13 +765,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
-  <dimension ref="A1:G2"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -731,17 +779,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -782,14 +830,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
-  <dimension ref="A1:J2"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -797,14 +845,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -855,7 +903,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5D1606-52F2-41B4-AD6D-1DB28716CAB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC7C5AB-E757-4143-A533-BA23B23672B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -141,14 +141,17 @@
     <t>+1 610-488-2411</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/place/?q=place_id:ChIJMQ6lFrfW1IkRFe1flYsZ06A</t>
+    <t>https://www.google.com/maps/place/?q=place_id:ChIJLdD4Ikv1xokRXCXMOatucy4</t>
+  </si>
+  <si>
+    <t>Action Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +169,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -188,20 +199,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -577,32 +591,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -658,16 +679,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -729,16 +750,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneeshc\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC7C5AB-E757-4143-A533-BA23B23672B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{B1B9883B-8408-4C7B-9A47-C46A7D0902DB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}"/>
+    <workbookView activeTab="5" windowHeight="15840" windowWidth="29040" xWindow="20370" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="TPSEE" sheetId="1" r:id="rId1"/>
-    <sheet name="Duplicate_Management" sheetId="7" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="Zoom" sheetId="2" r:id="rId4"/>
-    <sheet name="PDF" sheetId="3" r:id="rId5"/>
-    <sheet name="SA_Filters" sheetId="4" r:id="rId6"/>
-    <sheet name="SA_Advanced_Filters" sheetId="5" r:id="rId7"/>
+    <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
+    <sheet name="Display_Review" r:id="rId2" sheetId="9"/>
+    <sheet name="Bing" r:id="rId3" sheetId="8"/>
+    <sheet name="Duplicate_Management" r:id="rId4" sheetId="7"/>
+    <sheet name="Sheet1" r:id="rId5" sheetId="6"/>
+    <sheet name="Zoom" r:id="rId6" sheetId="2"/>
+    <sheet name="PDF" r:id="rId7" sheetId="3"/>
+    <sheet name="SA_Filters" r:id="rId8" sheetId="4"/>
+    <sheet name="SA_Advanced_Filters" r:id="rId9" sheetId="5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -75,12 +77,6 @@
     <t>Year_YYYY</t>
   </si>
   <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -145,12 +141,37 @@
   </si>
   <si>
     <t>Action Value</t>
+  </si>
+  <si>
+    <t>except GMB , Face book , Bing</t>
+  </si>
+  <si>
+    <t>SWOOP_Create_One</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>The Little Beet, 1212 18th St NW, 20036, +1 202-796-5100</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>March</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,26 +221,26 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -236,10 +257,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -274,7 +295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -326,7 +347,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -437,21 +458,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -468,7 +489,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -520,27 +541,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -568,73 +590,183 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="75.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
-  <dimension ref="A1:D1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -642,40 +774,78 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
-  <dimension ref="A1:F3"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -715,19 +885,19 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D3" s="3">
         <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
@@ -735,16 +905,16 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
-  <dimension ref="A1:F2"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:F2"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,13 +956,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
-  <dimension ref="A1:H2"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -800,17 +970,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -851,14 +1021,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
-  <dimension ref="A1:I2"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -866,65 +1036,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,32 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abinaya\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{8BC30246-6FCF-4FB6-97CC-80A9C43B41E3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15512EE-8BBD-4F57-817A-1E5994856480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet1" r:id="rId2" sheetId="2"/>
+    <sheet name="TPSEE" sheetId="1" r:id="rId1"/>
+    <sheet name="Duplicate_Management" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Zoom" sheetId="2" r:id="rId4"/>
+    <sheet name="PDF" sheetId="3" r:id="rId5"/>
+    <sheet name="SA_Filters" sheetId="4" r:id="rId6"/>
+    <sheet name="SA_Advanced_Filters" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -52,30 +65,125 @@
     <t>None</t>
   </si>
   <si>
-    <t>Espresso Bar, 603 D St, 99501, (907) 279-7622</t>
-  </si>
-  <si>
-    <t>Anchorage</t>
-  </si>
-  <si>
-    <t>Alaska</t>
+    <t>null</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>Day_DD</t>
+  </si>
+  <si>
+    <t>Month_MMM</t>
+  </si>
+  <si>
+    <t>Year_YYYY</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Owner Response</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
+  </si>
+  <si>
+    <t>Sentiment Category</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Atmosphere</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Good</t>
   </si>
   <si>
     <t>US</t>
   </si>
   <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>null</t>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>The Little Beet, 19501 Biscayne Blvd, Treats Food Hall, Floor 3, 33180, +1 305-359-5808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number </t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/?q=place_id:ChIJMQ6lFrfW1IkRFe1flYsZ06A</t>
+  </si>
+  <si>
+    <t>Status Text</t>
+  </si>
+  <si>
+    <t>Action Value</t>
+  </si>
+  <si>
+    <t>+1 917-338-7111</t>
+  </si>
+  <si>
+    <t>Merged</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>Suppressed</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Not a Duplicate</t>
+  </si>
+  <si>
+    <t>Unable to Process</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,10 +198,17 @@
       <family val="3"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF393939"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Open Sans"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,18 +229,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -142,10 +265,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -180,7 +303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -232,7 +355,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -343,21 +466,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -374,7 +497,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -426,31 +549,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:XFD1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,92 +592,465 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF188180-7FBA-422A-8B4F-79B4DFA3F3C5}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="84.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D3" s="3">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneeshc\git\DACAutomation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{B1B9883B-8408-4C7B-9A47-C46A7D0902DB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C52699B9-2761-4AA5-AAD4-68F79B973231}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="5" windowHeight="15840" windowWidth="29040" xWindow="20370" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
+    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
@@ -19,9 +19,10 @@
     <sheet name="Duplicate_Management" r:id="rId4" sheetId="7"/>
     <sheet name="Sheet1" r:id="rId5" sheetId="6"/>
     <sheet name="Zoom" r:id="rId6" sheetId="2"/>
-    <sheet name="PDF" r:id="rId7" sheetId="3"/>
-    <sheet name="SA_Filters" r:id="rId8" sheetId="4"/>
-    <sheet name="SA_Advanced_Filters" r:id="rId9" sheetId="5"/>
+    <sheet name="Syndication" r:id="rId7" sheetId="10"/>
+    <sheet name="PDF" r:id="rId8" sheetId="3"/>
+    <sheet name="SA_Filters" r:id="rId9" sheetId="4"/>
+    <sheet name="SA_Advanced_Filters" r:id="rId10" sheetId="5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="52">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -165,6 +166,30 @@
   </si>
   <si>
     <t>March</t>
+  </si>
+  <si>
+    <t>Location Number</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>TomTom</t>
+  </si>
+  <si>
+    <t>HERE</t>
+  </si>
+  <si>
+    <t>Zomato</t>
+  </si>
+  <si>
+    <t>9990038413</t>
+  </si>
+  <si>
+    <t>'9990038413</t>
   </si>
 </sst>
 </file>
@@ -551,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,16 +618,89 @@
         <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -839,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -910,6 +1008,65 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -960,7 +1117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1024,77 +1181,4 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
-</worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C52699B9-2761-4AA5-AAD4-68F79B973231}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D19264-6A9A-409F-9120-B58A8C86ACB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
-    <sheet name="Display_Review" r:id="rId2" sheetId="9"/>
-    <sheet name="Bing" r:id="rId3" sheetId="8"/>
-    <sheet name="Duplicate_Management" r:id="rId4" sheetId="7"/>
-    <sheet name="Sheet1" r:id="rId5" sheetId="6"/>
-    <sheet name="Zoom" r:id="rId6" sheetId="2"/>
-    <sheet name="Syndication" r:id="rId7" sheetId="10"/>
-    <sheet name="PDF" r:id="rId8" sheetId="3"/>
-    <sheet name="SA_Filters" r:id="rId9" sheetId="4"/>
-    <sheet name="SA_Advanced_Filters" r:id="rId10" sheetId="5"/>
+    <sheet name="TPSEE" sheetId="1" r:id="rId1"/>
+    <sheet name="Display_Review" sheetId="9" r:id="rId2"/>
+    <sheet name="Bing" sheetId="8" r:id="rId3"/>
+    <sheet name="Duplicate_Management" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="Zoom" sheetId="2" r:id="rId6"/>
+    <sheet name="Syndication" sheetId="10" r:id="rId7"/>
+    <sheet name="Syndication DTCManualApi" sheetId="11" r:id="rId8"/>
+    <sheet name="PDF" sheetId="3" r:id="rId9"/>
+    <sheet name="SA_Filters" sheetId="4" r:id="rId10"/>
+    <sheet name="SA_Advanced_Filters" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="59">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -190,13 +191,33 @@
   </si>
   <si>
     <t>'9990038413</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Bing</t>
+  </si>
+  <si>
+    <t>Factual</t>
+  </si>
+  <si>
+    <t>Foursquare</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,26 +267,26 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -282,10 +303,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -320,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -372,7 +393,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -483,21 +504,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -514,7 +535,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -566,28 +587,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -631,14 +652,80 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -646,14 +733,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -704,14 +791,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
@@ -760,13 +847,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F2"/>
@@ -815,13 +902,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -829,9 +916,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="75.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -857,14 +944,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -872,8 +959,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -928,14 +1015,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
@@ -943,7 +1030,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1003,72 +1090,217 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.5703125" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
       </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -1113,72 +1345,6 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" r="1" s="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D19264-6A9A-409F-9120-B58A8C86ACB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{FE982633-6E51-4641-8449-FBFA3F4D4DD5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}"/>
+    <workbookView activeTab="7" firstSheet="2" windowHeight="7875" windowWidth="7545" xWindow="2160" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="2160"/>
   </bookViews>
   <sheets>
-    <sheet name="TPSEE" sheetId="1" r:id="rId1"/>
-    <sheet name="Display_Review" sheetId="9" r:id="rId2"/>
-    <sheet name="Bing" sheetId="8" r:id="rId3"/>
-    <sheet name="Duplicate_Management" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
-    <sheet name="Zoom" sheetId="2" r:id="rId6"/>
-    <sheet name="Syndication" sheetId="10" r:id="rId7"/>
-    <sheet name="Syndication DTCManualApi" sheetId="11" r:id="rId8"/>
-    <sheet name="PDF" sheetId="3" r:id="rId9"/>
-    <sheet name="SA_Filters" sheetId="4" r:id="rId10"/>
-    <sheet name="SA_Advanced_Filters" sheetId="5" r:id="rId11"/>
+    <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
+    <sheet name="Display_Review" r:id="rId2" sheetId="9"/>
+    <sheet name="Bing" r:id="rId3" sheetId="8"/>
+    <sheet name="Duplicate_Management" r:id="rId4" sheetId="7"/>
+    <sheet name="Sheet1" r:id="rId5" sheetId="6"/>
+    <sheet name="Zoom" r:id="rId6" sheetId="2"/>
+    <sheet name="Syndication" r:id="rId7" sheetId="10"/>
+    <sheet name="Syndication DTCManualApi" r:id="rId8" sheetId="11"/>
+    <sheet name="PDF" r:id="rId9" sheetId="3"/>
+    <sheet name="SA_Filters" r:id="rId10" sheetId="4"/>
+    <sheet name="SA_Advanced_Filters" r:id="rId11" sheetId="5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="59">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -218,6 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -267,26 +268,26 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -303,10 +304,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -341,7 +342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -393,7 +394,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -504,21 +505,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -535,7 +536,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -587,15 +588,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -603,12 +604,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -652,14 +653,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -667,17 +668,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -718,14 +719,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -733,14 +734,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -791,14 +792,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
@@ -847,13 +848,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F2"/>
@@ -902,13 +903,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -916,9 +917,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="75.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -944,14 +945,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -959,8 +960,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1015,14 +1016,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
@@ -1030,7 +1031,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1090,13 +1091,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C5"/>
@@ -1104,9 +1105,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1165,21 +1166,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1193,56 +1196,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" s="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>53</v>
@@ -1253,10 +1256,10 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1264,7 +1267,7 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>58</v>
@@ -1275,32 +1278,21 @@
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -1345,6 +1337,6 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{FE982633-6E51-4641-8449-FBFA3F4D4DD5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{677A3889-7F4B-4DC2-BB4F-F5A60A9AFA07}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="7" firstSheet="2" windowHeight="7875" windowWidth="7545" xWindow="2160" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="2160"/>
+    <workbookView activeTab="9" firstSheet="5" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
@@ -20,10 +20,12 @@
     <sheet name="Sheet1" r:id="rId5" sheetId="6"/>
     <sheet name="Zoom" r:id="rId6" sheetId="2"/>
     <sheet name="Syndication" r:id="rId7" sheetId="10"/>
-    <sheet name="Syndication DTCManualApi" r:id="rId8" sheetId="11"/>
-    <sheet name="PDF" r:id="rId9" sheetId="3"/>
-    <sheet name="SA_Filters" r:id="rId10" sheetId="4"/>
-    <sheet name="SA_Advanced_Filters" r:id="rId11" sheetId="5"/>
+    <sheet name="Syndication DTCManual" r:id="rId8" sheetId="11"/>
+    <sheet name="Syndication DTCAPI" r:id="rId9" sheetId="13"/>
+    <sheet name="SyndicationLPAD" r:id="rId10" sheetId="12"/>
+    <sheet name="PDF" r:id="rId11" sheetId="3"/>
+    <sheet name="SA_Filters" r:id="rId12" sheetId="4"/>
+    <sheet name="SA_Advanced_Filters" r:id="rId13" sheetId="5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -190,28 +192,52 @@
     <t>9990038413</t>
   </si>
   <si>
-    <t>'9990038413</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
     <t>Submitted</t>
   </si>
   <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>Bing</t>
-  </si>
-  <si>
-    <t>Factual</t>
-  </si>
-  <si>
-    <t>Foursquare</t>
-  </si>
-  <si>
-    <t>In Progress</t>
+    <t>Apple,Bing,Facebook,Factual,Foursquare,Google,HERE,TomTom</t>
+  </si>
+  <si>
+    <t>In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>Merged</t>
+  </si>
+  <si>
+    <t>Suppressed</t>
+  </si>
+  <si>
+    <t>Not a duplicate</t>
+  </si>
+  <si>
+    <t>Unable to process</t>
+  </si>
+  <si>
+    <t>9000223167</t>
+  </si>
+  <si>
+    <t>In Progress,In Progress,In Progress,In Progress,In Progress,Submitted,In Progress,Submitted</t>
+  </si>
+  <si>
+    <t>Pot_Dup_Location Number</t>
+  </si>
+  <si>
+    <t>Pot_Dup_Ph Number</t>
+  </si>
+  <si>
+    <t>+1 917-388-9488</t>
+  </si>
+  <si>
+    <t>9000223168</t>
+  </si>
+  <si>
+    <t>50051000516</t>
   </si>
 </sst>
 </file>
@@ -219,7 +245,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +275,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF393939"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -271,7 +303,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -281,6 +313,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -659,6 +692,100 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="59.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="83.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -724,7 +851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -909,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,9 +1047,12 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="75.7109375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
@@ -932,8 +1062,20 @@
       <c r="C1" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -942,6 +1084,50 @@
       </c>
       <c r="C2" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1100,14 +1286,14 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1118,7 +1304,7 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1129,40 +1315,31 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
       <c r="B3" t="s">
         <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
       <c r="B4" t="s">
         <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
       <c r="B5" t="s">
         <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1172,17 +1349,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="59.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="83.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1193,7 +1371,7 @@
         <v>45</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row customFormat="1" r="2" s="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1201,87 +1379,10 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" s="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" s="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row customFormat="1" r="5" s="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row customFormat="1" r="6" s="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1291,52 +1392,13 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{677A3889-7F4B-4DC2-BB4F-F5A60A9AFA07}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08DFCEF-08E5-4BCE-B033-DA0742820B24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="9" firstSheet="5" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
-    <sheet name="Display_Review" r:id="rId2" sheetId="9"/>
-    <sheet name="Bing" r:id="rId3" sheetId="8"/>
-    <sheet name="Duplicate_Management" r:id="rId4" sheetId="7"/>
-    <sheet name="Sheet1" r:id="rId5" sheetId="6"/>
-    <sheet name="Zoom" r:id="rId6" sheetId="2"/>
-    <sheet name="Syndication" r:id="rId7" sheetId="10"/>
-    <sheet name="Syndication DTCManual" r:id="rId8" sheetId="11"/>
-    <sheet name="Syndication DTCAPI" r:id="rId9" sheetId="13"/>
-    <sheet name="SyndicationLPAD" r:id="rId10" sheetId="12"/>
-    <sheet name="PDF" r:id="rId11" sheetId="3"/>
-    <sheet name="SA_Filters" r:id="rId12" sheetId="4"/>
-    <sheet name="SA_Advanced_Filters" r:id="rId13" sheetId="5"/>
+    <sheet name="TPSEE" sheetId="1" r:id="rId1"/>
+    <sheet name="Display_Review" sheetId="9" r:id="rId2"/>
+    <sheet name="Bing" sheetId="8" r:id="rId3"/>
+    <sheet name="Duplicate_Management" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="Zoom" sheetId="2" r:id="rId6"/>
+    <sheet name="Syndication" sheetId="10" r:id="rId7"/>
+    <sheet name="Syndication DTCManual" sheetId="11" r:id="rId8"/>
+    <sheet name="Syndication DTCAPI" sheetId="13" r:id="rId9"/>
+    <sheet name="SyndicationLPAD" sheetId="12" r:id="rId10"/>
+    <sheet name="PDF" sheetId="3" r:id="rId11"/>
+    <sheet name="SA_Filters" sheetId="4" r:id="rId12"/>
+    <sheet name="SA_Advanced_Filters" sheetId="5" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="71">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -138,113 +138,124 @@
     <t>URL</t>
   </si>
   <si>
+    <t>https://www.google.com/maps/place/?q=place_id:ChIJLdD4Ikv1xokRXCXMOatucy4</t>
+  </si>
+  <si>
+    <t>Action Value</t>
+  </si>
+  <si>
+    <t>except GMB , Face book , Bing</t>
+  </si>
+  <si>
+    <t>SWOOP_Create_One</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>The Little Beet, 1212 18th St NW, 20036, +1 202-796-5100</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>Location Number</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>TomTom</t>
+  </si>
+  <si>
+    <t>HERE</t>
+  </si>
+  <si>
+    <t>Zomato</t>
+  </si>
+  <si>
+    <t>9990038413</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>Merged</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Not a Duplicate</t>
+  </si>
+  <si>
+    <t>Unable to Process</t>
+  </si>
+  <si>
+    <t>Suppressed</t>
+  </si>
+  <si>
     <t>+1 610-488-2411</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/place/?q=place_id:ChIJLdD4Ikv1xokRXCXMOatucy4</t>
-  </si>
-  <si>
-    <t>Action Value</t>
-  </si>
-  <si>
-    <t>except GMB , Face book , Bing</t>
-  </si>
-  <si>
-    <t>SWOOP_Create_One</t>
-  </si>
-  <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>The Little Beet, 1212 18th St NW, 20036, +1 202-796-5100</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>Location Number</t>
-  </si>
-  <si>
-    <t>Vendor</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>TomTom</t>
-  </si>
-  <si>
-    <t>HERE</t>
-  </si>
-  <si>
-    <t>Zomato</t>
-  </si>
-  <si>
-    <t>9990038413</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Submitted</t>
-  </si>
-  <si>
-    <t>Apple,Bing,Facebook,Factual,Foursquare,Google,HERE,TomTom</t>
-  </si>
-  <si>
-    <t>In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress</t>
-  </si>
-  <si>
-    <t>Deleted</t>
-  </si>
-  <si>
-    <t>Merged</t>
-  </si>
-  <si>
-    <t>Suppressed</t>
-  </si>
-  <si>
-    <t>Not a duplicate</t>
-  </si>
-  <si>
-    <t>Unable to process</t>
-  </si>
-  <si>
     <t>9000223167</t>
   </si>
   <si>
-    <t>In Progress,In Progress,In Progress,In Progress,In Progress,Submitted,In Progress,Submitted</t>
-  </si>
-  <si>
-    <t>Pot_Dup_Location Number</t>
-  </si>
-  <si>
-    <t>Pot_Dup_Ph Number</t>
-  </si>
-  <si>
-    <t>+1 917-388-9488</t>
-  </si>
-  <si>
-    <t>9000223168</t>
-  </si>
-  <si>
-    <t>50051000516</t>
+    <t>9000226221</t>
+  </si>
+  <si>
+    <t>9000226212</t>
+  </si>
+  <si>
+    <t>Apple,Bing,Facebook,Factual,Foursquare,Google,HERE,TomTom,TripAdvisor,Zomato</t>
+  </si>
+  <si>
+    <t>Bing,Foursquare,Google</t>
+  </si>
+  <si>
+    <t>Submitted,In Progress,Submitted</t>
+  </si>
+  <si>
+    <t>9000226213</t>
+  </si>
+  <si>
+    <t>Submitted,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress, In Progress</t>
+  </si>
+  <si>
+    <t>In Progress,Submitted,Submitted,Submitted,Submitted,Submitted,In Progress,In Progress,Submitted,In Progress</t>
+  </si>
+  <si>
+    <t>In Progress,Submitted,In Progress,Submitted,Submitted,Submitted,In Progress,In Progress,Submitted,In Progress</t>
+  </si>
+  <si>
+    <t>Status Text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -300,27 +311,27 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -337,10 +348,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -375,7 +386,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -427,7 +438,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -538,21 +549,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -569,7 +580,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -621,15 +632,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -637,12 +648,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -670,7 +681,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -686,57 +697,68 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="59.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="83.0" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="107" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -745,16 +767,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -781,13 +803,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -795,17 +817,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -846,14 +868,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -861,14 +883,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -919,14 +941,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
@@ -959,7 +981,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -975,13 +997,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F2"/>
@@ -1014,7 +1036,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -1030,26 +1052,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="75.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1060,59 +1082,53 @@
         <v>32</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" t="s">
-        <v>64</v>
-      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
@@ -1121,24 +1137,47 @@
       <c r="E5" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="1048576" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1048576" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -1146,8 +1185,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,7 +1203,7 @@
         <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1186,30 +1225,30 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>40</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
@@ -1217,20 +1256,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1257,7 +1296,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3">
         <v>2020</v>
@@ -1266,7 +1305,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="3">
         <v>2020</v>
@@ -1277,13 +1316,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -1291,114 +1330,155 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="59.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="83.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="102.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08DFCEF-08E5-4BCE-B033-DA0742820B24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3D9C92F3-E080-47A3-BEC2-314AC62B2035}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}"/>
+    <workbookView activeTab="3" firstSheet="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="TPSEE" sheetId="1" r:id="rId1"/>
-    <sheet name="Display_Review" sheetId="9" r:id="rId2"/>
-    <sheet name="Bing" sheetId="8" r:id="rId3"/>
-    <sheet name="Duplicate_Management" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
-    <sheet name="Zoom" sheetId="2" r:id="rId6"/>
-    <sheet name="Syndication" sheetId="10" r:id="rId7"/>
-    <sheet name="Syndication DTCManual" sheetId="11" r:id="rId8"/>
-    <sheet name="Syndication DTCAPI" sheetId="13" r:id="rId9"/>
-    <sheet name="SyndicationLPAD" sheetId="12" r:id="rId10"/>
-    <sheet name="PDF" sheetId="3" r:id="rId11"/>
-    <sheet name="SA_Filters" sheetId="4" r:id="rId12"/>
-    <sheet name="SA_Advanced_Filters" sheetId="5" r:id="rId13"/>
+    <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
+    <sheet name="Display_Review" r:id="rId2" sheetId="9"/>
+    <sheet name="Bing" r:id="rId3" sheetId="8"/>
+    <sheet name="Duplicate_Management" r:id="rId4" sheetId="7"/>
+    <sheet name="Sheet1" r:id="rId5" sheetId="6"/>
+    <sheet name="Zoom" r:id="rId6" sheetId="2"/>
+    <sheet name="Syndication" r:id="rId7" sheetId="10"/>
+    <sheet name="Syndication DTCManual" r:id="rId8" sheetId="11"/>
+    <sheet name="Syndication DTCAPI" r:id="rId9" sheetId="13"/>
+    <sheet name="SyndicationLPAD" r:id="rId10" sheetId="12"/>
+    <sheet name="PDF" r:id="rId11" sheetId="3"/>
+    <sheet name="SA_Filters" r:id="rId12" sheetId="4"/>
+    <sheet name="SA_Advanced_Filters" r:id="rId13" sheetId="5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="70">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>https://www.google.com/maps/place/?q=place_id:ChIJLdD4Ikv1xokRXCXMOatucy4</t>
-  </si>
-  <si>
-    <t>Action Value</t>
   </si>
   <si>
     <t>except GMB , Face book , Bing</t>
@@ -256,6 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -311,27 +309,27 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -348,10 +346,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -386,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -438,7 +436,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -549,21 +547,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -580,7 +578,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -632,15 +630,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -648,12 +646,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -681,7 +679,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -697,14 +695,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -712,53 +710,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="107" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="107.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>67</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -803,13 +801,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -817,17 +815,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -868,14 +866,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -883,14 +881,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -941,14 +939,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
@@ -981,7 +979,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -997,13 +995,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F2"/>
@@ -1036,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -1052,26 +1050,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
-  <dimension ref="A1:G1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="75.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1082,87 +1080,81 @@
         <v>32</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>60</v>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>60</v>
+      <c r="D7" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>60</v>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -1170,14 +1162,14 @@
       <c r="G1048576" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -1185,8 +1177,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1203,7 +1195,7 @@
         <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1225,30 +1217,30 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
@@ -1256,7 +1248,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1296,7 +1288,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3">
         <v>2020</v>
@@ -1305,7 +1297,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="3">
         <v>2020</v>
@@ -1316,13 +1308,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -1330,120 +1322,120 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="102.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="102.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -1451,34 +1443,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneeshc\git\DACAutomation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{B1B9883B-8408-4C7B-9A47-C46A7D0902DB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3D9C92F3-E080-47A3-BEC2-314AC62B2035}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="5" windowHeight="15840" windowWidth="29040" xWindow="20370" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
+    <workbookView activeTab="3" firstSheet="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
@@ -19,9 +19,13 @@
     <sheet name="Duplicate_Management" r:id="rId4" sheetId="7"/>
     <sheet name="Sheet1" r:id="rId5" sheetId="6"/>
     <sheet name="Zoom" r:id="rId6" sheetId="2"/>
-    <sheet name="PDF" r:id="rId7" sheetId="3"/>
-    <sheet name="SA_Filters" r:id="rId8" sheetId="4"/>
-    <sheet name="SA_Advanced_Filters" r:id="rId9" sheetId="5"/>
+    <sheet name="Syndication" r:id="rId7" sheetId="10"/>
+    <sheet name="Syndication DTCManual" r:id="rId8" sheetId="11"/>
+    <sheet name="Syndication DTCAPI" r:id="rId9" sheetId="13"/>
+    <sheet name="SyndicationLPAD" r:id="rId10" sheetId="12"/>
+    <sheet name="PDF" r:id="rId11" sheetId="3"/>
+    <sheet name="SA_Filters" r:id="rId12" sheetId="4"/>
+    <sheet name="SA_Advanced_Filters" r:id="rId13" sheetId="5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="70">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -134,37 +138,115 @@
     <t>URL</t>
   </si>
   <si>
+    <t>https://www.google.com/maps/place/?q=place_id:ChIJLdD4Ikv1xokRXCXMOatucy4</t>
+  </si>
+  <si>
+    <t>except GMB , Face book , Bing</t>
+  </si>
+  <si>
+    <t>SWOOP_Create_One</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>The Little Beet, 1212 18th St NW, 20036, +1 202-796-5100</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>Location Number</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>TomTom</t>
+  </si>
+  <si>
+    <t>HERE</t>
+  </si>
+  <si>
+    <t>Zomato</t>
+  </si>
+  <si>
+    <t>9990038413</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>Merged</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Not a Duplicate</t>
+  </si>
+  <si>
+    <t>Unable to Process</t>
+  </si>
+  <si>
+    <t>Suppressed</t>
+  </si>
+  <si>
     <t>+1 610-488-2411</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/place/?q=place_id:ChIJLdD4Ikv1xokRXCXMOatucy4</t>
-  </si>
-  <si>
-    <t>Action Value</t>
-  </si>
-  <si>
-    <t>except GMB , Face book , Bing</t>
-  </si>
-  <si>
-    <t>SWOOP_Create_One</t>
-  </si>
-  <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>The Little Beet, 1212 18th St NW, 20036, +1 202-796-5100</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>March</t>
+    <t>9000223167</t>
+  </si>
+  <si>
+    <t>9000226221</t>
+  </si>
+  <si>
+    <t>9000226212</t>
+  </si>
+  <si>
+    <t>Apple,Bing,Facebook,Factual,Foursquare,Google,HERE,TomTom,TripAdvisor,Zomato</t>
+  </si>
+  <si>
+    <t>Bing,Foursquare,Google</t>
+  </si>
+  <si>
+    <t>Submitted,In Progress,Submitted</t>
+  </si>
+  <si>
+    <t>9000226213</t>
+  </si>
+  <si>
+    <t>Submitted,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress, In Progress</t>
+  </si>
+  <si>
+    <t>In Progress,Submitted,Submitted,Submitted,Submitted,Submitted,In Progress,In Progress,Submitted,In Progress</t>
+  </si>
+  <si>
+    <t>In Progress,Submitted,In Progress,Submitted,Submitted,Submitted,In Progress,In Progress,Submitted,In Progress</t>
+  </si>
+  <si>
+    <t>Status Text</t>
   </si>
 </sst>
 </file>
@@ -172,7 +254,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +284,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF393939"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -224,13 +312,14 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -552,7 +641,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,16 +679,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -611,151 +700,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
-  <dimension ref="A1:G2"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="75.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="107.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
+      <c r="A2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -764,152 +754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D3" s="3">
-        <v>16</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2020</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -920,16 +765,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -960,7 +805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1026,7 +871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -1097,4 +942,535 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
+  <dimension ref="A1:H1048576"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="75.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="1048576" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1048576" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D3" s="3">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="102.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{3D9C92F3-E080-47A3-BEC2-314AC62B2035}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{5C5C5109-4B1F-4CF7-9111-8F5AA08A6F5A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
+    <workbookView activeTab="9" firstSheet="5" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
@@ -222,9 +222,6 @@
     <t>9000226221</t>
   </si>
   <si>
-    <t>9000226212</t>
-  </si>
-  <si>
     <t>Apple,Bing,Facebook,Factual,Foursquare,Google,HERE,TomTom,TripAdvisor,Zomato</t>
   </si>
   <si>
@@ -234,12 +231,6 @@
     <t>Submitted,In Progress,Submitted</t>
   </si>
   <si>
-    <t>9000226213</t>
-  </si>
-  <si>
-    <t>Submitted,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress, In Progress</t>
-  </si>
-  <si>
     <t>In Progress,Submitted,Submitted,Submitted,Submitted,Submitted,In Progress,In Progress,Submitted,In Progress</t>
   </si>
   <si>
@@ -247,6 +238,15 @@
   </si>
   <si>
     <t>Status Text</t>
+  </si>
+  <si>
+    <t>In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,Submitted,In Progress,In Progress,In Progress</t>
+  </si>
+  <si>
+    <t>9000226217</t>
+  </si>
+  <si>
+    <t>9000226220</t>
   </si>
 </sst>
 </file>
@@ -254,7 +254,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,12 +284,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF393939"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -312,14 +306,13 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -704,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,25 +720,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>65</v>
+      <c r="A3" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -765,16 +758,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1058,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,16 +1245,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1317,14 +1310,14 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1380,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,30 +1395,40 @@
         <v>43</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row customFormat="1" r="2" s="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1438,7 +1441,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,10 +1467,10 @@
         <v>60</v>
       </c>
       <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
         <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{5C5C5109-4B1F-4CF7-9111-8F5AA08A6F5A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416AD554-ABCF-42C3-BBC5-3E54BAF11694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="9" firstSheet="5" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
-    <sheet name="Display_Review" r:id="rId2" sheetId="9"/>
-    <sheet name="Bing" r:id="rId3" sheetId="8"/>
-    <sheet name="Duplicate_Management" r:id="rId4" sheetId="7"/>
-    <sheet name="Sheet1" r:id="rId5" sheetId="6"/>
-    <sheet name="Zoom" r:id="rId6" sheetId="2"/>
-    <sheet name="Syndication" r:id="rId7" sheetId="10"/>
-    <sheet name="Syndication DTCManual" r:id="rId8" sheetId="11"/>
-    <sheet name="Syndication DTCAPI" r:id="rId9" sheetId="13"/>
-    <sheet name="SyndicationLPAD" r:id="rId10" sheetId="12"/>
-    <sheet name="PDF" r:id="rId11" sheetId="3"/>
-    <sheet name="SA_Filters" r:id="rId12" sheetId="4"/>
-    <sheet name="SA_Advanced_Filters" r:id="rId13" sheetId="5"/>
+    <sheet name="TPSEE" sheetId="1" r:id="rId1"/>
+    <sheet name="Display_Review" sheetId="9" r:id="rId2"/>
+    <sheet name="Bing" sheetId="8" r:id="rId3"/>
+    <sheet name="Duplicate_Management" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="Zoom" sheetId="2" r:id="rId6"/>
+    <sheet name="Syndication" sheetId="10" r:id="rId7"/>
+    <sheet name="Syndication DTCManual" sheetId="11" r:id="rId8"/>
+    <sheet name="Syndication DTCAPI" sheetId="13" r:id="rId9"/>
+    <sheet name="SyndicationLPAD" sheetId="12" r:id="rId10"/>
+    <sheet name="PDF" sheetId="3" r:id="rId11"/>
+    <sheet name="SA_Filters" sheetId="4" r:id="rId12"/>
+    <sheet name="SA_Advanced_Filters" sheetId="5" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="65">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -159,12 +159,6 @@
     <t>none</t>
   </si>
   <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
     <t>Location Number</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
     <t>Zomato</t>
   </si>
   <si>
-    <t>9990038413</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -213,48 +204,41 @@
     <t>Suppressed</t>
   </si>
   <si>
-    <t>+1 610-488-2411</t>
-  </si>
-  <si>
-    <t>9000223167</t>
-  </si>
-  <si>
-    <t>9000226221</t>
-  </si>
-  <si>
     <t>Apple,Bing,Facebook,Factual,Foursquare,Google,HERE,TomTom,TripAdvisor,Zomato</t>
   </si>
   <si>
     <t>Bing,Foursquare,Google</t>
   </si>
   <si>
-    <t>Submitted,In Progress,Submitted</t>
-  </si>
-  <si>
     <t>In Progress,Submitted,Submitted,Submitted,Submitted,Submitted,In Progress,In Progress,Submitted,In Progress</t>
   </si>
   <si>
-    <t>In Progress,Submitted,In Progress,Submitted,Submitted,Submitted,In Progress,In Progress,Submitted,In Progress</t>
-  </si>
-  <si>
     <t>Status Text</t>
   </si>
   <si>
-    <t>In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,Submitted,In Progress,In Progress,In Progress</t>
-  </si>
-  <si>
-    <t>9000226217</t>
-  </si>
-  <si>
-    <t>9000226220</t>
+    <t>May</t>
+  </si>
+  <si>
+    <t>9000227687</t>
+  </si>
+  <si>
+    <t>Submitted,Submitted,Submitted</t>
+  </si>
+  <si>
+    <t>9000227691</t>
+  </si>
+  <si>
+    <t>In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress</t>
+  </si>
+  <si>
+    <t>+966 9200 00001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +268,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF393939"/>
+      <name val="Open Sans"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -303,26 +297,28 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -339,10 +335,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -377,7 +373,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -429,7 +425,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -540,21 +536,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -571,7 +567,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -623,31 +619,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -667,7 +663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -683,93 +679,82 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="107.0" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="107" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -794,31 +779,31 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -838,7 +823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -859,32 +844,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -911,7 +896,7 @@
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -932,22 +917,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -967,7 +952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -988,21 +973,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1043,220 +1028,223 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
-  <dimension ref="A1:H1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
+  <dimension ref="A1:G1048576"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="1048576" spans="7:7">
+      <c r="G1048576" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F1DC5D16-654A-4D10-A0DA-C3EC9A9CD3AC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="75.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="1048576" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G1048576" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1276,21 +1264,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="3">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3">
         <v>2020</v>
       </c>
       <c r="D3" s="3">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F3" s="3">
         <v>2020</v>
@@ -1301,179 +1289,158 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="102.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="102.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416AD554-ABCF-42C3-BBC5-3E54BAF11694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3372FBFC-C267-4281-9D52-C2E2384E7840}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}"/>
+    <workbookView activeTab="5" firstSheet="2" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="TPSEE" sheetId="1" r:id="rId1"/>
-    <sheet name="Display_Review" sheetId="9" r:id="rId2"/>
-    <sheet name="Bing" sheetId="8" r:id="rId3"/>
-    <sheet name="Duplicate_Management" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
-    <sheet name="Zoom" sheetId="2" r:id="rId6"/>
-    <sheet name="Syndication" sheetId="10" r:id="rId7"/>
-    <sheet name="Syndication DTCManual" sheetId="11" r:id="rId8"/>
-    <sheet name="Syndication DTCAPI" sheetId="13" r:id="rId9"/>
-    <sheet name="SyndicationLPAD" sheetId="12" r:id="rId10"/>
-    <sheet name="PDF" sheetId="3" r:id="rId11"/>
-    <sheet name="SA_Filters" sheetId="4" r:id="rId12"/>
-    <sheet name="SA_Advanced_Filters" sheetId="5" r:id="rId13"/>
+    <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
+    <sheet name="Display_Review" r:id="rId2" sheetId="9"/>
+    <sheet name="Bing" r:id="rId3" sheetId="8"/>
+    <sheet name="Duplicate_Management" r:id="rId4" sheetId="7"/>
+    <sheet name="Sheet1" r:id="rId5" sheetId="6"/>
+    <sheet name="Zoom" r:id="rId6" sheetId="2"/>
+    <sheet name="Syndication" r:id="rId7" sheetId="10"/>
+    <sheet name="Syndication DTCManual" r:id="rId8" sheetId="11"/>
+    <sheet name="Syndication DTCAPI" r:id="rId9" sheetId="13"/>
+    <sheet name="SyndicationLPAD" r:id="rId10" sheetId="12"/>
+    <sheet name="PDF" r:id="rId11" sheetId="3"/>
+    <sheet name="SA_Filters" r:id="rId12" sheetId="4"/>
+    <sheet name="SA_Advanced_Filters" r:id="rId13" sheetId="5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -238,6 +238,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -297,28 +298,28 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -335,10 +336,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -373,7 +374,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -425,7 +426,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -536,21 +537,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -567,7 +568,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -619,15 +620,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -635,12 +636,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -684,14 +685,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -699,9 +700,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="107" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="107.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -727,14 +728,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -743,16 +744,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -779,13 +780,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -793,17 +794,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row customFormat="1" r="1" s="4" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -844,14 +845,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -859,14 +860,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -917,14 +918,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
@@ -973,13 +974,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F2"/>
@@ -1028,26 +1029,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
-  <dimension ref="A1:G1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="75.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1067,7 +1068,7 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1141,16 +1142,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{F1DC5D16-654A-4D10-A0DA-C3EC9A9CD3AC}"/>
+    <hyperlink r:id="rId1" ref="B2" xr:uid="{F1DC5D16-654A-4D10-A0DA-C3EC9A9CD3AC}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -1158,8 +1159,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1214,35 +1215,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1289,13 +1290,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -1303,9 +1304,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1355,12 +1356,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1369,10 +1370,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="102.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="102.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1386,7 +1387,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1">
+    <row customFormat="1" r="2" s="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>62</v>
       </c>
@@ -1398,14 +1399,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1413,9 +1414,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1441,6 +1442,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{3372FBFC-C267-4281-9D52-C2E2384E7840}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{77E62FEA-76B9-450D-953C-027C05D60812}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="5" firstSheet="2" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
+    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
@@ -18,14 +18,15 @@
     <sheet name="Bing" r:id="rId3" sheetId="8"/>
     <sheet name="Duplicate_Management" r:id="rId4" sheetId="7"/>
     <sheet name="Sheet1" r:id="rId5" sheetId="6"/>
-    <sheet name="Zoom" r:id="rId6" sheetId="2"/>
-    <sheet name="Syndication" r:id="rId7" sheetId="10"/>
-    <sheet name="Syndication DTCManual" r:id="rId8" sheetId="11"/>
-    <sheet name="Syndication DTCAPI" r:id="rId9" sheetId="13"/>
-    <sheet name="SyndicationLPAD" r:id="rId10" sheetId="12"/>
-    <sheet name="PDF" r:id="rId11" sheetId="3"/>
-    <sheet name="SA_Filters" r:id="rId12" sheetId="4"/>
-    <sheet name="SA_Advanced_Filters" r:id="rId13" sheetId="5"/>
+    <sheet name="BingZoom" r:id="rId6" sheetId="14"/>
+    <sheet name="Zoom" r:id="rId7" sheetId="2"/>
+    <sheet name="Syndication" r:id="rId8" sheetId="10"/>
+    <sheet name="Syndication DTCManual" r:id="rId9" sheetId="11"/>
+    <sheet name="Syndication DTCAPI" r:id="rId10" sheetId="13"/>
+    <sheet name="SyndicationLPAD" r:id="rId11" sheetId="12"/>
+    <sheet name="PDF" r:id="rId12" sheetId="3"/>
+    <sheet name="SA_Filters" r:id="rId13" sheetId="4"/>
+    <sheet name="SA_Advanced_Filters" r:id="rId14" sheetId="5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="69">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -232,6 +233,18 @@
   </si>
   <si>
     <t>+966 9200 00001</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Chicago</t>
   </si>
 </sst>
 </file>
@@ -630,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -672,13 +685,13 @@
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>8</v>
@@ -691,6 +704,48 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -733,7 +788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -784,7 +839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -850,7 +905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -1221,11 +1276,66 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC4A950-02FB-4771-9093-D3B7699EE31D}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="3">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1294,7 +1404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1360,7 +1470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1402,46 +1512,4 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{77E62FEA-76B9-450D-953C-027C05D60812}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{AD7CAC1E-C7EF-4A5C-AD5C-23C8417AB2BA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
     <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="67">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -235,13 +235,7 @@
     <t>+966 9200 00001</t>
   </si>
   <si>
-    <t>December</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>Illinois</t>
+    <t>IL</t>
   </si>
   <si>
     <t>Chicago</t>
@@ -644,7 +638,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -688,10 +682,10 @@
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>8</v>
@@ -1277,55 +1271,71 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC4A950-02FB-4771-9093-D3B7699EE31D}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3">
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3">
         <v>2019</v>
       </c>
-      <c r="D2" s="3">
-        <v>21</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2020</v>
+      <c r="D3" s="3">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -1334,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{AD7CAC1E-C7EF-4A5C-AD5C-23C8417AB2BA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{F417D318-26AF-453A-885A-EA8886DB05E5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
+    <workbookView activeTab="3" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
@@ -28,17 +28,25 @@
     <sheet name="SA_Filters" r:id="rId13" sheetId="4"/>
     <sheet name="SA_Advanced_Filters" r:id="rId14" sheetId="5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="80">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -232,13 +240,52 @@
     <t>In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress</t>
   </si>
   <si>
-    <t>+966 9200 00001</t>
-  </si>
-  <si>
     <t>IL</t>
   </si>
   <si>
     <t>Chicago</t>
+  </si>
+  <si>
+    <t>Not a duplicate</t>
+  </si>
+  <si>
+    <t>Unable to process</t>
+  </si>
+  <si>
+    <t>DTC_Status</t>
+  </si>
+  <si>
+    <t>External Notes</t>
+  </si>
+  <si>
+    <t>Internal Notes</t>
+  </si>
+  <si>
+    <t>Testing 123</t>
+  </si>
+  <si>
+    <t>Testing 124</t>
+  </si>
+  <si>
+    <t>Testing 125</t>
+  </si>
+  <si>
+    <t>Testing 126</t>
+  </si>
+  <si>
+    <t>Testing 127</t>
+  </si>
+  <si>
+    <t>Testing 128</t>
+  </si>
+  <si>
+    <t>Testing 129</t>
+  </si>
+  <si>
+    <t>+1 610-488-2411</t>
+  </si>
+  <si>
+    <t>9000223167</t>
   </si>
 </sst>
 </file>
@@ -637,7 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -682,10 +729,10 @@
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>8</v>
@@ -1086,16 +1133,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="75.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
     <col min="6" max="7" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
   </cols>
@@ -1113,12 +1159,19 @@
       <c r="D1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>33</v>
@@ -1127,64 +1180,119 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="C4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="C5" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="C6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="C7" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="C8" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="1048576" spans="7:7">
       <c r="G1048576" s="2"/>

--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,36 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{F417D318-26AF-453A-885A-EA8886DB05E5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD0B72B-2CBE-45F9-817B-4078D0538635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
-    <sheet name="Display_Review" r:id="rId2" sheetId="9"/>
-    <sheet name="Bing" r:id="rId3" sheetId="8"/>
-    <sheet name="Duplicate_Management" r:id="rId4" sheetId="7"/>
-    <sheet name="Sheet1" r:id="rId5" sheetId="6"/>
-    <sheet name="BingZoom" r:id="rId6" sheetId="14"/>
-    <sheet name="Zoom" r:id="rId7" sheetId="2"/>
-    <sheet name="Syndication" r:id="rId8" sheetId="10"/>
-    <sheet name="Syndication DTCManual" r:id="rId9" sheetId="11"/>
-    <sheet name="Syndication DTCAPI" r:id="rId10" sheetId="13"/>
-    <sheet name="SyndicationLPAD" r:id="rId11" sheetId="12"/>
-    <sheet name="PDF" r:id="rId12" sheetId="3"/>
-    <sheet name="SA_Filters" r:id="rId13" sheetId="4"/>
-    <sheet name="SA_Advanced_Filters" r:id="rId14" sheetId="5"/>
+    <sheet name="TPSEE" sheetId="1" r:id="rId1"/>
+    <sheet name="Display_Review" sheetId="9" r:id="rId2"/>
+    <sheet name="Bing" sheetId="8" r:id="rId3"/>
+    <sheet name="Duplicate_Management" sheetId="7" r:id="rId4"/>
+    <sheet name="Results" sheetId="15" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="BingZoom" sheetId="14" r:id="rId7"/>
+    <sheet name="Zoom" sheetId="2" r:id="rId8"/>
+    <sheet name="Syndication" sheetId="10" r:id="rId9"/>
+    <sheet name="Syndication DTCManual" sheetId="11" r:id="rId10"/>
+    <sheet name="Syndication DTCAPI" sheetId="13" r:id="rId11"/>
+    <sheet name="SyndicationLPAD" sheetId="12" r:id="rId12"/>
+    <sheet name="PDF" sheetId="3" r:id="rId13"/>
+    <sheet name="SA_Filters" sheetId="4" r:id="rId14"/>
+    <sheet name="SA_Advanced_Filters" sheetId="5" r:id="rId15"/>
+    <sheet name="SA_Zoom" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="88">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -240,12 +242,6 @@
     <t>In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress,In Progress</t>
   </si>
   <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
     <t>Not a duplicate</t>
   </si>
   <si>
@@ -282,17 +278,46 @@
     <t>Testing 129</t>
   </si>
   <si>
-    <t>+1 610-488-2411</t>
-  </si>
-  <si>
-    <t>9000223167</t>
+    <t>Resultpage</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>+1 914-202-2822</t>
+  </si>
+  <si>
+    <t>9000223153</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>26 E 40th St</t>
+  </si>
+  <si>
+    <t>August</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -352,28 +377,28 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -390,10 +415,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -428,7 +453,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -480,7 +505,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -591,21 +616,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -622,7 +647,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -674,28 +699,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -729,23 +754,23 @@
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -754,9 +779,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="102.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -767,6 +793,49 @@
         <v>41</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -782,13 +851,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -796,9 +865,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="107.0" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="107" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -824,14 +893,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
-  <dimension ref="A1:G2"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -876,13 +945,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
-  <dimension ref="A1:G2"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -890,17 +959,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="4" spans="1:6">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -941,14 +1010,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
-  <dimension ref="A1:J2"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -956,14 +1025,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1014,14 +1083,85 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3EA4CE-EDA7-4242-A743-BE83DBFF6070}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D3" s="3">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
@@ -1070,19 +1210,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
@@ -1111,39 +1254,40 @@
       <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>85</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
-  <dimension ref="A1:H1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="75.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1160,18 +1304,18 @@
         <v>40</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>33</v>
@@ -1180,16 +1324,16 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1197,16 +1341,16 @@
         <v>51</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1214,16 +1358,16 @@
         <v>49</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1231,16 +1375,16 @@
         <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1248,16 +1392,16 @@
         <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1265,16 +1409,16 @@
         <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1282,16 +1426,16 @@
         <v>48</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1048576" spans="7:7">
@@ -1299,16 +1443,58 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2" xr:uid="{F1DC5D16-654A-4D10-A0DA-C3EC9A9CD3AC}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F1DC5D16-654A-4D10-A0DA-C3EC9A9CD3AC}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF31050-A1CE-4806-A18B-82FAF036D110}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -1316,8 +1502,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1372,17 +1558,17 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC4A950-02FB-4771-9093-D3B7699EE31D}">
-  <dimension ref="A1:G3"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC4A950-02FB-4771-9093-D3B7699EE31D}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1424,19 +1610,19 @@
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C3" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D3" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="F3" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
@@ -1444,21 +1630,21 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
-  <dimension ref="A1:G3"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1498,7 +1684,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C3" s="3">
         <v>2020</v>
@@ -1507,7 +1693,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="F3" s="3">
         <v>2020</v>
@@ -1518,13 +1704,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
-  <dimension ref="A1:D5"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -1532,9 +1718,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1584,50 +1770,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="102.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,38 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD0B72B-2CBE-45F9-817B-4078D0538635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{4F4E767D-7306-4079-A7FA-1C3DC512F6A5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}"/>
+    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="TPSEE" sheetId="1" r:id="rId1"/>
-    <sheet name="Display_Review" sheetId="9" r:id="rId2"/>
-    <sheet name="Bing" sheetId="8" r:id="rId3"/>
-    <sheet name="Duplicate_Management" sheetId="7" r:id="rId4"/>
-    <sheet name="Results" sheetId="15" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
-    <sheet name="BingZoom" sheetId="14" r:id="rId7"/>
-    <sheet name="Zoom" sheetId="2" r:id="rId8"/>
-    <sheet name="Syndication" sheetId="10" r:id="rId9"/>
-    <sheet name="Syndication DTCManual" sheetId="11" r:id="rId10"/>
-    <sheet name="Syndication DTCAPI" sheetId="13" r:id="rId11"/>
-    <sheet name="SyndicationLPAD" sheetId="12" r:id="rId12"/>
-    <sheet name="PDF" sheetId="3" r:id="rId13"/>
-    <sheet name="SA_Filters" sheetId="4" r:id="rId14"/>
-    <sheet name="SA_Advanced_Filters" sheetId="5" r:id="rId15"/>
-    <sheet name="SA_Zoom" sheetId="16" r:id="rId16"/>
+    <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
+    <sheet name="Display_Review" r:id="rId2" sheetId="9"/>
+    <sheet name="Bing" r:id="rId3" sheetId="8"/>
+    <sheet name="Duplicate_Management" r:id="rId4" sheetId="7"/>
+    <sheet name="Results" r:id="rId5" sheetId="15"/>
+    <sheet name="Sheet1" r:id="rId6" sheetId="6"/>
+    <sheet name="BingZoom" r:id="rId7" sheetId="14"/>
+    <sheet name="Zoom" r:id="rId8" sheetId="2"/>
+    <sheet name="Syndication" r:id="rId9" sheetId="10"/>
+    <sheet name="Syndication DTCManual" r:id="rId10" sheetId="11"/>
+    <sheet name="Syndication DTCAPI" r:id="rId11" sheetId="13"/>
+    <sheet name="SyndicationLPAD" r:id="rId12" sheetId="12"/>
+    <sheet name="PDF" r:id="rId13" sheetId="3"/>
+    <sheet name="SA_Filters" r:id="rId14" sheetId="4"/>
+    <sheet name="SA_Advanced_Filters" r:id="rId15" sheetId="5"/>
+    <sheet name="SA_Zoom" r:id="rId16" sheetId="16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="87">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -302,22 +302,20 @@
     <t>July</t>
   </si>
   <si>
+    <t>June</t>
+  </si>
+  <si>
     <t>NY</t>
   </si>
   <si>
     <t>New York</t>
-  </si>
-  <si>
-    <t>26 E 40th St</t>
-  </si>
-  <si>
-    <t>August</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -377,28 +375,28 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -415,10 +413,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -453,7 +451,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -505,7 +503,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -616,21 +614,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -647,7 +645,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -699,28 +697,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="D2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -754,23 +752,23 @@
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -779,10 +777,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="102.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="102.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -796,7 +794,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1">
+    <row customFormat="1" r="2" s="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>62</v>
       </c>
@@ -808,14 +806,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -823,9 +821,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -851,13 +849,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -865,9 +863,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="107" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="107.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -893,14 +891,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -945,13 +943,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -959,17 +957,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row customFormat="1" r="1" s="4" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1010,14 +1008,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -1025,14 +1023,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1083,14 +1081,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3EA4CE-EDA7-4242-A743-BE83DBFF6070}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3EA4CE-EDA7-4242-A743-BE83DBFF6070}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -1155,13 +1153,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
@@ -1210,21 +1208,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1258,24 +1256,24 @@
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
-  <dimension ref="A1:G1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -1283,11 +1281,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="75.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1443,22 +1441,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{F1DC5D16-654A-4D10-A0DA-C3EC9A9CD3AC}"/>
+    <hyperlink r:id="rId1" ref="B2" xr:uid="{F1DC5D16-654A-4D10-A0DA-C3EC9A9CD3AC}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF31050-A1CE-4806-A18B-82FAF036D110}">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF31050-A1CE-4806-A18B-82FAF036D110}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1487,14 +1485,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -1502,8 +1500,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1558,16 +1556,16 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC4A950-02FB-4771-9093-D3B7699EE31D}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC4A950-02FB-4771-9093-D3B7699EE31D}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1610,16 +1608,16 @@
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3">
         <v>2020</v>
       </c>
       <c r="D3" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F3" s="3">
         <v>2020</v>
@@ -1630,13 +1628,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -1644,7 +1642,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1704,13 +1702,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -1718,9 +1716,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1770,6 +1768,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{4F4E767D-7306-4079-A7FA-1C3DC512F6A5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{5509D916-D5AC-49EC-9E50-A82741F08A76}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
     <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="85">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -293,22 +293,16 @@
     <t>100</t>
   </si>
   <si>
-    <t>+1 914-202-2822</t>
-  </si>
-  <si>
-    <t>9000223153</t>
-  </si>
-  <si>
     <t>July</t>
   </si>
   <si>
     <t>June</t>
   </si>
   <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>New York</t>
+    <t>+1 917-338-7111</t>
+  </si>
+  <si>
+    <t>9000223160</t>
   </si>
 </sst>
 </file>
@@ -708,7 +702,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -749,13 +743,13 @@
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>8</v>
@@ -1256,7 +1250,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -1313,7 +1307,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>33</v>
@@ -1322,7 +1316,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>50</v>
@@ -1339,7 +1333,7 @@
         <v>51</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>51</v>
@@ -1356,7 +1350,7 @@
         <v>49</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>49</v>
@@ -1373,7 +1367,7 @@
         <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>54</v>
@@ -1390,7 +1384,7 @@
         <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>64</v>
@@ -1407,7 +1401,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>65</v>
@@ -1424,7 +1418,7 @@
         <v>48</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>48</v>
@@ -1608,7 +1602,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="3">
         <v>2020</v>
@@ -1617,7 +1611,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F3" s="3">
         <v>2020</v>
@@ -1682,7 +1676,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" s="3">
         <v>2020</v>
@@ -1691,7 +1685,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F3" s="3">
         <v>2020</v>

--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{5509D916-D5AC-49EC-9E50-A82741F08A76}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{95B69A22-587E-4C41-8487-1559DC035A07}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
     <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="87">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>9000223160</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>101 Maiden Ln</t>
   </si>
 </sst>
 </file>
@@ -341,13 +347,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri "/>
+      <sz val="10"/>
+      <color rgb="FF393939"/>
+      <name val="Open Sans"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF393939"/>
+      <color rgb="FF000000"/>
       <name val="Open Sans"/>
     </font>
   </fonts>
@@ -372,7 +378,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -380,7 +386,15 @@
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -702,7 +716,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -742,16 +756,16 @@
       <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -901,16 +915,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1091,16 +1105,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1211,43 +1225,48 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="6.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="8.0" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="7" width="47.28515625" collapsed="true"/>
+    <col min="7" max="16384" style="7" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -1255,7 +1274,7 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1306,7 +1325,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1486,10 +1505,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1549,6 +1568,20 @@
         <v>38</v>
       </c>
     </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
@@ -1560,22 +1593,22 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1605,7 +1638,7 @@
         <v>82</v>
       </c>
       <c r="C3" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
@@ -1614,7 +1647,7 @@
         <v>81</v>
       </c>
       <c r="F3" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
@@ -1640,16 +1673,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">

--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohitm\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C7C9D68B-5280-4E5F-8A91-B69F55881021}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C645E2BF-B3BB-4847-833A-577FAD07BC67}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
+    <workbookView activeTab="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
+    <sheet name="Configuration" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -67,6 +68,21 @@
   </si>
   <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>Country_A</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>AUH</t>
+  </si>
+  <si>
+    <t>Abu Dhabi</t>
+  </si>
+  <si>
+    <t>TestLocation5, Theyab Bin Eissa St, +971600522252</t>
   </si>
 </sst>
 </file>
@@ -428,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,4 +502,65 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7936F0-11C6-4C74-931B-7A6CA8535798}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohitm\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C645E2BF-B3BB-4847-833A-577FAD07BC67}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2EEC1815-DBCE-44AC-BBA8-1CA0A8ABF7CA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
     <workbookView activeTab="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
@@ -73,16 +73,16 @@
     <t>Country_A</t>
   </si>
   <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>AUH</t>
-  </si>
-  <si>
-    <t>Abu Dhabi</t>
-  </si>
-  <si>
-    <t>TestLocation5, Theyab Bin Eissa St, +971600522252</t>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Marvel pro, Finch Ave W, M3J 3H7, +14166041496</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{95B69A22-587E-4C41-8487-1559DC035A07}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{13968CDE-1DB9-4084-B35B-6654E33F92B0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
     <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="94">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -293,22 +293,43 @@
     <t>100</t>
   </si>
   <si>
-    <t>July</t>
+    <t>+1 917-338-7111</t>
+  </si>
+  <si>
+    <t>9000223160</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>101 Maiden Ln</t>
+  </si>
+  <si>
+    <t>Beta Filter</t>
+  </si>
+  <si>
+    <t>Staging Date Filter - Client Level ,User</t>
+  </si>
+  <si>
+    <t>Staging Filter - Client Level User</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>26 E 40th St</t>
   </si>
   <si>
     <t>June</t>
   </si>
   <si>
-    <t>+1 917-338-7111</t>
-  </si>
-  <si>
-    <t>9000223160</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>101 Maiden Ln</t>
+    <t xml:space="preserve">Staging Filter - Location Level User </t>
+  </si>
+  <si>
+    <t>148 Madison Ave</t>
+  </si>
+  <si>
+    <t>Staging Date Filter - Location Level</t>
   </si>
 </sst>
 </file>
@@ -378,7 +399,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -395,6 +416,7 @@
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -716,7 +738,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -756,16 +778,16 @@
       <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -915,16 +937,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1105,16 +1127,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1266,7 +1288,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -1274,7 +1296,7 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1326,7 +1348,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>33</v>
@@ -1335,7 +1357,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>50</v>
@@ -1352,7 +1374,7 @@
         <v>51</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>51</v>
@@ -1369,7 +1391,7 @@
         <v>49</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>49</v>
@@ -1386,7 +1408,7 @@
         <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>54</v>
@@ -1403,7 +1425,7 @@
         <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>64</v>
@@ -1420,7 +1442,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>65</v>
@@ -1437,7 +1459,7 @@
         <v>48</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>48</v>
@@ -1505,14 +1527,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
@@ -1568,18 +1591,87 @@
         <v>38</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10">
+        <v>43991</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44063</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="10">
+        <v>44013</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44063</v>
       </c>
     </row>
   </sheetData>
@@ -1593,22 +1685,22 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1632,22 +1724,22 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D3" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F3" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
@@ -1664,7 +1756,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1673,16 +1765,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1706,19 +1798,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3">
         <v>2020</v>
       </c>
       <c r="D3" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F3" s="3">
         <v>2020</v>

--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{13968CDE-1DB9-4084-B35B-6654E33F92B0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D615A604-472F-4D42-B05A-F3D0AB8F834A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
     <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="99">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -320,9 +320,6 @@
     <t>26 E 40th St</t>
   </si>
   <si>
-    <t>June</t>
-  </si>
-  <si>
     <t xml:space="preserve">Staging Filter - Location Level User </t>
   </si>
   <si>
@@ -330,6 +327,24 @@
   </si>
   <si>
     <t>Staging Date Filter - Location Level</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>125 Westchester Ave</t>
+  </si>
+  <si>
+    <t>White Plains</t>
+  </si>
+  <si>
+    <t>Fields Good Chicken</t>
   </si>
 </sst>
 </file>
@@ -399,7 +414,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -408,9 +423,6 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
@@ -738,7 +750,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -775,14 +787,14 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -937,16 +949,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1127,16 +1139,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1247,7 +1259,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1284,14 +1296,14 @@
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>39</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -1527,15 +1539,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="B18:D18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
@@ -1606,7 +1619,7 @@
       <c r="C7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1617,15 +1630,18 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>83</v>
       </c>
       <c r="C10" t="s">
         <v>83</v>
       </c>
       <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1635,19 +1651,19 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>43991</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>44063</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1658,20 +1674,37 @@
         <v>83</v>
       </c>
       <c r="D18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="10">
+    <row r="21" spans="1:5">
+      <c r="A21" s="9">
         <v>44013</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>44063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1685,22 +1718,22 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="A3:F3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1727,16 +1760,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C3" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D3" s="3">
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F3" s="3">
         <v>2020</v>
@@ -1756,7 +1789,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1765,16 +1798,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1801,13 +1834,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C3" s="3">
         <v>2020</v>
       </c>
       <c r="D3" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>88</v>

--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{D615A604-472F-4D42-B05A-F3D0AB8F834A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr documentId="13_ncr:1_{823B31BD-C09B-44EE-BF32-BBB296E0DED1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
     <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
@@ -750,7 +750,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -797,10 +797,10 @@
         <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>83</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1541,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{823B31BD-C09B-44EE-BF32-BBB296E0DED1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr documentId="13_ncr:1_{16E7265B-FBE1-45CB-A6FB-B7E115E2066C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
     <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="98">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -332,12 +332,6 @@
     <t>July</t>
   </si>
   <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
     <t>125 Westchester Ave</t>
   </si>
   <si>
@@ -345,6 +339,9 @@
   </si>
   <si>
     <t>Fields Good Chicken</t>
+  </si>
+  <si>
+    <t>Automation Test</t>
   </si>
 </sst>
 </file>
@@ -750,7 +747,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -791,16 +788,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>84</v>
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1259,7 +1256,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1300,10 +1297,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -1542,7 +1539,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+      <selection activeCell="E10" sqref="B10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1611,15 +1608,18 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -1701,10 +1701,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1718,7 +1718,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1757,19 +1757,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C3" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D3" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F3" s="3">
         <v>2020</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>93</v>

--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,34 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{16E7265B-FBE1-45CB-A6FB-B7E115E2066C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr documentId="13_ncr:1_{ABF6DDBC-755E-4673-9CE4-BE8B24B74E85}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
-    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
+    <workbookView activeTab="6" firstSheet="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
-    <sheet name="Display_Review" r:id="rId2" sheetId="9"/>
-    <sheet name="Bing" r:id="rId3" sheetId="8"/>
-    <sheet name="Duplicate_Management" r:id="rId4" sheetId="7"/>
-    <sheet name="Results" r:id="rId5" sheetId="15"/>
-    <sheet name="Sheet1" r:id="rId6" sheetId="6"/>
-    <sheet name="BingZoom" r:id="rId7" sheetId="14"/>
-    <sheet name="Zoom" r:id="rId8" sheetId="2"/>
-    <sheet name="Syndication" r:id="rId9" sheetId="10"/>
-    <sheet name="Syndication DTCManual" r:id="rId10" sheetId="11"/>
-    <sheet name="Syndication DTCAPI" r:id="rId11" sheetId="13"/>
-    <sheet name="SyndicationLPAD" r:id="rId12" sheetId="12"/>
-    <sheet name="PDF" r:id="rId13" sheetId="3"/>
-    <sheet name="SA_Filters" r:id="rId14" sheetId="4"/>
-    <sheet name="SA_Advanced_Filters" r:id="rId15" sheetId="5"/>
-    <sheet name="SA_Zoom" r:id="rId16" sheetId="16"/>
+    <sheet name="Facebook" r:id="rId2" sheetId="20"/>
+    <sheet name="Display_Review" r:id="rId3" sheetId="9"/>
+    <sheet name="Bing" r:id="rId4" sheetId="8"/>
+    <sheet name="FilterOrder" r:id="rId5" sheetId="17"/>
+    <sheet name="FilterOrderBing" r:id="rId6" sheetId="18"/>
+    <sheet name="FilterOrderFacebook" r:id="rId7" sheetId="19"/>
+    <sheet name="Duplicate_Management" r:id="rId8" sheetId="7"/>
+    <sheet name="Results" r:id="rId9" sheetId="15"/>
+    <sheet name="Sheet1" r:id="rId10" sheetId="6"/>
+    <sheet name="BingZoom" r:id="rId11" sheetId="14"/>
+    <sheet name="Zoom" r:id="rId12" sheetId="2"/>
+    <sheet name="Syndication" r:id="rId13" sheetId="10"/>
+    <sheet name="Syndication DTCManual" r:id="rId14" sheetId="11"/>
+    <sheet name="Syndication DTCAPI" r:id="rId15" sheetId="13"/>
+    <sheet name="SyndicationLPAD" r:id="rId16" sheetId="12"/>
+    <sheet name="PDF" r:id="rId17" sheetId="3"/>
+    <sheet name="SA_Filters" r:id="rId18" sheetId="4"/>
+    <sheet name="SA_Advanced_Filters" r:id="rId19" sheetId="5"/>
+    <sheet name="SA_Zoom" r:id="rId20" sheetId="16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="103">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -342,6 +346,21 @@
   </si>
   <si>
     <t>Automation Test</t>
+  </si>
+  <si>
+    <t>All Locations</t>
+  </si>
+  <si>
+    <t>0302</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Thrissur</t>
   </si>
 </sst>
 </file>
@@ -411,7 +430,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -426,6 +445,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -746,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -796,7 +818,7 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -807,6 +829,396 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9">
+        <v>43991</v>
+      </c>
+      <c r="B14" s="9">
+        <v>44063</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9">
+        <v>44013</v>
+      </c>
+      <c r="B21" s="9">
+        <v>44063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC4A950-02FB-4771-9093-D3B7699EE31D}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D3" s="3">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D3" s="3">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -850,7 +1262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -892,7 +1304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -935,7 +1347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -946,16 +1358,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -986,7 +1398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1052,7 +1464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -1125,7 +1537,62 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F635368-BB2D-4072-8E80-91DBE792F8EF}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3EA4CE-EDA7-4242-A743-BE83DBFF6070}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1136,16 +1603,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1196,7 +1663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1251,7 +1718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1305,7 +1772,7 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1315,7 +1782,161 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0C12BF-7E83-4532-A128-E57EBFF1BF2D}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2DE816-A9A4-4743-BF9C-2DEBCA2D1E71}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row ht="26.25" r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97167B2-7C0B-4E15-B189-0ACF08094BA1}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row ht="26.25" r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
@@ -1492,7 +2113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF31050-A1CE-4806-A18B-82FAF036D110}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1532,394 +2153,4 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
-  <dimension ref="A1:F25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="B10:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="9">
-        <v>43991</v>
-      </c>
-      <c r="B14" s="9">
-        <v>44063</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="9">
-        <v>44013</v>
-      </c>
-      <c r="B21" s="9">
-        <v>44063</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC4A950-02FB-4771-9093-D3B7699EE31D}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D3" s="3">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2020</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D3" s="3">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2020</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{ABF6DDBC-755E-4673-9CE4-BE8B24B74E85}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr documentId="13_ncr:1_{FBAF4D26-5352-4DF8-BC16-AE5CA9AEA214}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
+    <workbookView activeTab="12" firstSheet="8" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
@@ -23,16 +23,17 @@
     <sheet name="Duplicate_Management" r:id="rId8" sheetId="7"/>
     <sheet name="Results" r:id="rId9" sheetId="15"/>
     <sheet name="Sheet1" r:id="rId10" sheetId="6"/>
-    <sheet name="BingZoom" r:id="rId11" sheetId="14"/>
-    <sheet name="Zoom" r:id="rId12" sheetId="2"/>
-    <sheet name="Syndication" r:id="rId13" sheetId="10"/>
-    <sheet name="Syndication DTCManual" r:id="rId14" sheetId="11"/>
-    <sheet name="Syndication DTCAPI" r:id="rId15" sheetId="13"/>
-    <sheet name="SyndicationLPAD" r:id="rId16" sheetId="12"/>
-    <sheet name="PDF" r:id="rId17" sheetId="3"/>
-    <sheet name="SA_Filters" r:id="rId18" sheetId="4"/>
-    <sheet name="SA_Advanced_Filters" r:id="rId19" sheetId="5"/>
-    <sheet name="SA_Zoom" r:id="rId20" sheetId="16"/>
+    <sheet name="New Filters" r:id="rId11" sheetId="21"/>
+    <sheet name="BingZoom" r:id="rId12" sheetId="14"/>
+    <sheet name="Zoom" r:id="rId13" sheetId="2"/>
+    <sheet name="Syndication" r:id="rId14" sheetId="10"/>
+    <sheet name="Syndication DTCManual" r:id="rId15" sheetId="11"/>
+    <sheet name="Syndication DTCAPI" r:id="rId16" sheetId="13"/>
+    <sheet name="SyndicationLPAD" r:id="rId17" sheetId="12"/>
+    <sheet name="PDF" r:id="rId18" sheetId="3"/>
+    <sheet name="SA_Filters" r:id="rId19" sheetId="4"/>
+    <sheet name="SA_Advanced_Filters" r:id="rId20" sheetId="5"/>
+    <sheet name="SA_Zoom" r:id="rId21" sheetId="16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="115">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -318,9 +319,6 @@
     <t>Staging Filter - Client Level User</t>
   </si>
   <si>
-    <t>August</t>
-  </si>
-  <si>
     <t>26 E 40th St</t>
   </si>
   <si>
@@ -333,12 +331,6 @@
     <t>Staging Date Filter - Location Level</t>
   </si>
   <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>125 Westchester Ave</t>
-  </si>
-  <si>
     <t>White Plains</t>
   </si>
   <si>
@@ -351,16 +343,61 @@
     <t>All Locations</t>
   </si>
   <si>
-    <t>0302</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>Kerala</t>
-  </si>
-  <si>
-    <t>Thrissur</t>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Scenario5</t>
+  </si>
+  <si>
+    <t>Scenario2</t>
+  </si>
+  <si>
+    <t>Scenario3</t>
+  </si>
+  <si>
+    <t>Scenario4</t>
+  </si>
+  <si>
+    <t>Scenario6</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>Melt Shop, 125 Westchester Ave, Westchester Mall, Savor Food Hall L4, 10601, (914) 202-2822</t>
+  </si>
+  <si>
+    <t>Automation Account - Filter Combination - Client Level</t>
+  </si>
+  <si>
+    <t>Automation Account - Date Filter - Client Level</t>
+  </si>
+  <si>
+    <t>International Account - Filter Combination - Client Level</t>
+  </si>
+  <si>
+    <t>International Account - Date Filter - Client Level</t>
+  </si>
+  <si>
+    <t>Bing and Facebook</t>
+  </si>
+  <si>
+    <t>Location Level</t>
+  </si>
+  <si>
+    <t>Automation Account - Filter Combination - Location Level</t>
+  </si>
+  <si>
+    <t>Automation Account - Date Filter - Location Level</t>
+  </si>
+  <si>
+    <t>International Account - Filter Combination - Location Level</t>
+  </si>
+  <si>
+    <t>International Account - Date Filter - Location Level</t>
   </si>
 </sst>
 </file>
@@ -368,7 +405,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,6 +445,12 @@
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -430,7 +473,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -447,6 +490,9 @@
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -766,13 +812,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
@@ -782,7 +828,7 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -802,7 +848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -820,6 +866,106 @@
       </c>
       <c r="F2" s="8" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -832,11 +978,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
@@ -844,7 +990,7 @@
     <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -861,7 +1007,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -878,7 +1024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -895,14 +1041,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>27</v>
@@ -917,14 +1063,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -936,15 +1082,15 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>43991</v>
       </c>
@@ -952,31 +1098,31 @@
         <v>44063</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>44013</v>
       </c>
@@ -984,7 +1130,7 @@
         <v>44063</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -995,10 +1141,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1008,102 +1154,700 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC4A950-02FB-4771-9093-D3B7699EE31D}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73840A65-FD3F-4FC7-8FDF-F89283B3CCE3}">
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row ht="45" r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row ht="30" r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23">
+        <v>2021</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row ht="45" r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3">
+      <c r="B37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D3" s="3">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2020</v>
-      </c>
+      <c r="B49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" s="2">
+        <v>2021</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC4A950-02FB-4771-9093-D3B7699EE31D}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1123,24 +1867,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D3" s="3">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2020</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -1153,223 +1897,31 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="102.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="107.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1387,6 +1939,26 @@
       </c>
       <c r="F2" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -1398,7 +1970,253 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="102.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="107.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1406,7 +2224,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
@@ -1418,7 +2236,7 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="4" spans="1:6">
+    <row customFormat="1" r="1" s="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1438,7 +2256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1464,7 +2282,145 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F635368-BB2D-4072-8E80-91DBE792F8EF}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" customWidth="true" width="13.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -1472,7 +2428,7 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
@@ -1484,7 +2440,7 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -1511,7 +2467,7 @@
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1537,62 +2493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F635368-BB2D-4072-8E80-91DBE792F8EF}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3EA4CE-EDA7-4242-A743-BE83DBFF6070}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1600,21 +2501,21 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1634,7 +2535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>19</v>
       </c>
@@ -1671,9 +2572,9 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1693,7 +2594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1720,23 +2621,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="6.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="8.0" collapsed="true"/>
     <col min="4" max="5" bestFit="true" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="7" width="47.28515625" collapsed="true"/>
     <col min="7" max="16384" style="7" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1756,8 +2657,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1774,6 +2675,86 @@
       </c>
       <c r="F2" s="8" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1787,15 +2768,16 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1812,9 +2794,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row ht="15.75" r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -1826,7 +2808,7 @@
         <v>83</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1840,15 +2822,15 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1865,9 +2847,9 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="26.25" r="2" spans="1:5">
+    <row ht="15.75" r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -1879,7 +2861,7 @@
         <v>83</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1891,13 +2873,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97167B2-7C0B-4E15-B189-0ACF08094BA1}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1914,21 +2896,21 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="26.25" r="2" spans="1:5">
+    <row ht="15.75" r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1944,7 +2926,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="75.7109375" collapsed="true"/>
@@ -1953,7 +2935,7 @@
     <col min="6" max="7" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
@@ -1976,7 +2958,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row ht="15.75" r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>81</v>
       </c>
@@ -1999,7 +2981,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>51</v>
       </c>
@@ -2016,7 +2998,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>49</v>
       </c>
@@ -2033,7 +3015,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>54</v>
       </c>
@@ -2050,7 +3032,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>52</v>
       </c>
@@ -2067,7 +3049,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>53</v>
       </c>
@@ -2084,7 +3066,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>48</v>
       </c>
@@ -2101,7 +3083,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1048576" spans="7:7">
+    <row r="1048576" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G1048576" s="2"/>
     </row>
   </sheetData>
@@ -2119,32 +3101,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>80</v>
       </c>

--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{FBAF4D26-5352-4DF8-BC16-AE5CA9AEA214}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{00CC6A2A-39E5-4AF7-9B35-CCB450073262}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="12" firstSheet="8" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
+    <workbookView activeTab="3" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="123">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -398,6 +398,30 @@
   </si>
   <si>
     <t>International Account - Date Filter - Location Level</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Staging</t>
+  </si>
+  <si>
+    <t>Test Automation</t>
+  </si>
+  <si>
+    <t>135 W 50th St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aurify Brands - Filter Combination - Client Level </t>
+  </si>
+  <si>
+    <t>Aurify Brands - Date Filter - Client Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aurify Brands - Filter Combination - Location Level </t>
+  </si>
+  <si>
+    <t>Aurify Brands - Date Filter - Location Level</t>
   </si>
 </sst>
 </file>
@@ -405,7 +429,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,6 +475,19 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF393939"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -473,7 +510,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -494,6 +531,10 @@
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -849,7 +890,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -950,7 +991,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>94</v>
@@ -1155,20 +1196,28 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73840A65-FD3F-4FC7-8FDF-F89283B3CCE3}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:F37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1188,7 +1237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>99</v>
       </c>
@@ -1208,7 +1257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>100</v>
       </c>
@@ -1228,7 +1277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>101</v>
       </c>
@@ -1248,7 +1297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>98</v>
       </c>
@@ -1268,7 +1317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="45" r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row ht="45" r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>102</v>
       </c>
@@ -1288,12 +1337,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -1313,15 +1369,25 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H14" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1341,7 +1407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>99</v>
       </c>
@@ -1361,7 +1427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>100</v>
       </c>
@@ -1381,7 +1447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>101</v>
       </c>
@@ -1401,7 +1467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="30" r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row ht="30" r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>98</v>
       </c>
@@ -1421,7 +1487,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1429,12 +1495,19 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1454,19 +1527,22 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1486,7 +1562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>99</v>
       </c>
@@ -1506,7 +1582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>100</v>
       </c>
@@ -1526,7 +1602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>101</v>
       </c>
@@ -1546,7 +1622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
@@ -1566,7 +1642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="45" r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row ht="45" r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>102</v>
       </c>
@@ -1586,7 +1662,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1594,7 +1670,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1602,17 +1678,20 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>11</v>
       </c>
@@ -1632,22 +1711,25 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="4"/>
+      <c r="J40" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
@@ -1670,7 +1752,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>99</v>
       </c>
@@ -1678,7 +1760,7 @@
         <v>7</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>8</v>
@@ -1693,7 +1775,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>100</v>
       </c>
@@ -1701,10 +1783,10 @@
         <v>7</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>8</v>
@@ -1716,7 +1798,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>101</v>
       </c>
@@ -1724,13 +1806,13 @@
         <v>7</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>8</v>
@@ -1739,7 +1821,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row ht="45" r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>98</v>
       </c>
@@ -1747,22 +1829,22 @@
         <v>7</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1773,7 +1855,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1784,16 +1866,18 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
@@ -1820,8 +1904,728 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row ht="15.75" r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>11</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="2"/>
+    </row>
+    <row ht="15.75" r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>11</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D76" s="3">
+        <v>2</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2021</v>
+      </c>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row ht="15.75" r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>18</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D89" s="3">
+        <v>2</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F89" s="3">
+        <v>2021</v>
+      </c>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="2"/>
+    </row>
+    <row ht="15.75" r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G98" s="2"/>
+    </row>
+    <row ht="15.75" r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>18</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C103" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D103" s="3">
+        <v>2</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F103" s="3">
+        <v>2021</v>
+      </c>
+      <c r="G103" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1836,16 +2640,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1868,22 +2672,22 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="A3" s="3">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3">
         <v>2021</v>
       </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>2021</v>
       </c>
     </row>
@@ -1900,7 +2704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
@@ -1910,16 +2714,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1943,10 +2747,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3" s="3">
         <v>2021</v>
@@ -1955,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="F3" s="3">
         <v>2021</v>
@@ -2176,16 +2980,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2284,10 +3088,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F635368-BB2D-4072-8E80-91DBE792F8EF}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F6"/>
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2340,10 +3144,10 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -2360,13 +3164,13 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
@@ -2380,7 +3184,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -2389,7 +3193,7 @@
         <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>8</v>
@@ -2400,7 +3204,7 @@
         <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -2411,8 +3215,28 @@
       <c r="E6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>88</v>
+      <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2504,16 +3328,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2621,10 +3445,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2682,10 +3506,10 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -2702,13 +3526,13 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
@@ -2722,7 +3546,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -2731,7 +3555,7 @@
         <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>8</v>
@@ -2742,7 +3566,7 @@
         <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -2753,8 +3577,28 @@
       <c r="E6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>88</v>
+      <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,43 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{00CC6A2A-39E5-4AF7-9B35-CCB450073262}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DA76FC-9677-4651-B633-6C025050DD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
-    <sheet name="Facebook" r:id="rId2" sheetId="20"/>
-    <sheet name="Display_Review" r:id="rId3" sheetId="9"/>
-    <sheet name="Bing" r:id="rId4" sheetId="8"/>
-    <sheet name="FilterOrder" r:id="rId5" sheetId="17"/>
-    <sheet name="FilterOrderBing" r:id="rId6" sheetId="18"/>
-    <sheet name="FilterOrderFacebook" r:id="rId7" sheetId="19"/>
-    <sheet name="Duplicate_Management" r:id="rId8" sheetId="7"/>
-    <sheet name="Results" r:id="rId9" sheetId="15"/>
-    <sheet name="Sheet1" r:id="rId10" sheetId="6"/>
-    <sheet name="New Filters" r:id="rId11" sheetId="21"/>
-    <sheet name="BingZoom" r:id="rId12" sheetId="14"/>
-    <sheet name="Zoom" r:id="rId13" sheetId="2"/>
-    <sheet name="Syndication" r:id="rId14" sheetId="10"/>
-    <sheet name="Syndication DTCManual" r:id="rId15" sheetId="11"/>
-    <sheet name="Syndication DTCAPI" r:id="rId16" sheetId="13"/>
-    <sheet name="SyndicationLPAD" r:id="rId17" sheetId="12"/>
-    <sheet name="PDF" r:id="rId18" sheetId="3"/>
-    <sheet name="SA_Filters" r:id="rId19" sheetId="4"/>
-    <sheet name="SA_Advanced_Filters" r:id="rId20" sheetId="5"/>
-    <sheet name="SA_Zoom" r:id="rId21" sheetId="16"/>
+    <sheet name="TPSEE" sheetId="1" r:id="rId1"/>
+    <sheet name="Location_Page_Search" sheetId="22" r:id="rId2"/>
+    <sheet name="Facebook" sheetId="20" r:id="rId3"/>
+    <sheet name="Display_Review" sheetId="9" r:id="rId4"/>
+    <sheet name="Bing" sheetId="8" r:id="rId5"/>
+    <sheet name="FilterOrder" sheetId="17" r:id="rId6"/>
+    <sheet name="FilterOrderBing" sheetId="18" r:id="rId7"/>
+    <sheet name="FilterOrderFacebook" sheetId="19" r:id="rId8"/>
+    <sheet name="Duplicate_Management" sheetId="7" r:id="rId9"/>
+    <sheet name="Results" sheetId="15" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId11"/>
+    <sheet name="New Filters" sheetId="21" r:id="rId12"/>
+    <sheet name="BingZoom" sheetId="14" r:id="rId13"/>
+    <sheet name="Zoom" sheetId="2" r:id="rId14"/>
+    <sheet name="Syndication" sheetId="10" r:id="rId15"/>
+    <sheet name="Syndication DTCManual" sheetId="11" r:id="rId16"/>
+    <sheet name="Syndication DTCAPI" sheetId="13" r:id="rId17"/>
+    <sheet name="SyndicationLPAD" sheetId="12" r:id="rId18"/>
+    <sheet name="PDF" sheetId="3" r:id="rId19"/>
+    <sheet name="SA_Filters" sheetId="4" r:id="rId20"/>
+    <sheet name="SA_Advanced_Filters" sheetId="5" r:id="rId21"/>
+    <sheet name="SA_Zoom" sheetId="16" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="134">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -422,13 +423,45 @@
   </si>
   <si>
     <t>Aurify Brands - Date Filter - Location Level</t>
+  </si>
+  <si>
+    <t>Search By Location</t>
+  </si>
+  <si>
+    <t>Search By Name</t>
+  </si>
+  <si>
+    <t>Search By Address</t>
+  </si>
+  <si>
+    <t>Search By City</t>
+  </si>
+  <si>
+    <t>Search By State</t>
+  </si>
+  <si>
+    <t>Search By Postal Code</t>
+  </si>
+  <si>
+    <t>Search By Phone</t>
+  </si>
+  <si>
+    <t>9000230163</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>55425</t>
+  </si>
+  <si>
+    <t>+1 703-310-6711</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -507,44 +540,45 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -561,10 +595,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -599,7 +633,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -651,7 +685,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -762,21 +796,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -793,7 +827,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -845,15 +879,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F7"/>
@@ -861,12 +895,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1010,14 +1044,56 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF31050-A1CE-4806-A18B-82FAF036D110}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:E25"/>
@@ -1025,10 +1101,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1189,14 +1265,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73840A65-FD3F-4FC7-8FDF-F89283B3CCE3}">
-  <dimension ref="A1:K103"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73840A65-FD3F-4FC7-8FDF-F89283B3CCE3}">
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F7"/>
@@ -1317,7 +1393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="45" r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>102</v>
       </c>
@@ -1467,7 +1543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="30" r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>98</v>
       </c>
@@ -1642,7 +1718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="45" r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>102</v>
       </c>
@@ -1821,7 +1897,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row ht="45" r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>98</v>
       </c>
@@ -2017,7 +2093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="15.75" r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>102</v>
       </c>
@@ -2204,7 +2280,7 @@
       </c>
       <c r="G71" s="2"/>
     </row>
-    <row ht="15.75" r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>102</v>
       </c>
@@ -2390,7 +2466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="15.75" r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>102</v>
       </c>
@@ -2541,7 +2617,7 @@
       </c>
       <c r="G97" s="2"/>
     </row>
-    <row ht="15.75" r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>98</v>
       </c>
@@ -2562,7 +2638,7 @@
       </c>
       <c r="G98" s="2"/>
     </row>
-    <row ht="15.75" r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2624,14 +2700,14 @@
       <c r="G103" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC4A950-02FB-4771-9093-D3B7699EE31D}">
-  <dimension ref="A1:G3"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC4A950-02FB-4771-9093-D3B7699EE31D}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:F3"/>
@@ -2640,16 +2716,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2696,34 +2772,34 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
-  <dimension ref="A1:G3"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2770,13 +2846,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
-  <dimension ref="A1:D5"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -2784,9 +2860,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2836,12 +2912,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2850,10 +2926,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="102.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="102.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2867,7 +2943,7 @@
         <v>58</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>62</v>
       </c>
@@ -2879,14 +2955,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -2894,9 +2970,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2922,13 +2998,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -2936,9 +3012,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="107.0" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="107" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2964,14 +3040,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
-  <dimension ref="A1:G2"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -2980,16 +3056,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3016,13 +3092,84 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C76C6E-154C-4EE9-B021-C644C18DD456}">
   <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -3030,17 +3177,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3081,172 +3228,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F635368-BB2D-4072-8E80-91DBE792F8EF}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" customWidth="true" width="13.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
-  <dimension ref="A1:J2"/>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -3254,14 +3243,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3312,14 +3301,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3EA4CE-EDA7-4242-A743-BE83DBFF6070}">
-  <dimension ref="A1:G3"/>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3EA4CE-EDA7-4242-A743-BE83DBFF6070}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -3328,16 +3317,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3384,13 +3373,151 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F635368-BB2D-4072-8E80-91DBE792F8EF}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="13.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
@@ -3439,26 +3566,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
-  <dimension ref="A1:G7"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="8.0" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="7" width="47.28515625" collapsed="true"/>
-    <col min="7" max="16384" style="7" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="9.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="47.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="7" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3506,10 +3633,10 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -3526,13 +3653,13 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
@@ -3546,7 +3673,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -3555,18 +3682,18 @@
         <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -3577,39 +3704,19 @@
       <c r="E6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>84</v>
+      <c r="F6" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0C12BF-7E83-4532-A128-E57EBFF1BF2D}">
-  <dimension ref="A1:F2"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0C12BF-7E83-4532-A128-E57EBFF1BF2D}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -3617,8 +3724,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3638,7 +3745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3656,14 +3763,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2DE816-A9A4-4743-BF9C-2DEBCA2D1E71}">
-  <dimension ref="A1:F2"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2DE816-A9A4-4743-BF9C-2DEBCA2D1E71}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -3671,7 +3778,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3691,7 +3798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3709,13 +3816,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97167B2-7C0B-4E15-B189-0ACF08094BA1}">
-  <dimension ref="A1:F2"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97167B2-7C0B-4E15-B189-0ACF08094BA1}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -3740,7 +3847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3758,13 +3865,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
-  <dimension ref="A1:H1048576"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -3772,11 +3879,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="75.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3802,7 +3909,7 @@
         <v>68</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>81</v>
       </c>
@@ -3932,51 +4039,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2" xr:uid="{F1DC5D16-654A-4D10-A0DA-C3EC9A9CD3AC}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F1DC5D16-654A-4D10-A0DA-C3EC9A9CD3AC}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF31050-A1CE-4806-A18B-82FAF036D110}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,44 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DA76FC-9677-4651-B633-6C025050DD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C4E34E0F-5FA2-4357-946F-0D33372E211E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}"/>
+    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="TPSEE" sheetId="1" r:id="rId1"/>
-    <sheet name="Location_Page_Search" sheetId="22" r:id="rId2"/>
-    <sheet name="Facebook" sheetId="20" r:id="rId3"/>
-    <sheet name="Display_Review" sheetId="9" r:id="rId4"/>
-    <sheet name="Bing" sheetId="8" r:id="rId5"/>
-    <sheet name="FilterOrder" sheetId="17" r:id="rId6"/>
-    <sheet name="FilterOrderBing" sheetId="18" r:id="rId7"/>
-    <sheet name="FilterOrderFacebook" sheetId="19" r:id="rId8"/>
-    <sheet name="Duplicate_Management" sheetId="7" r:id="rId9"/>
-    <sheet name="Results" sheetId="15" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId11"/>
-    <sheet name="New Filters" sheetId="21" r:id="rId12"/>
-    <sheet name="BingZoom" sheetId="14" r:id="rId13"/>
-    <sheet name="Zoom" sheetId="2" r:id="rId14"/>
-    <sheet name="Syndication" sheetId="10" r:id="rId15"/>
-    <sheet name="Syndication DTCManual" sheetId="11" r:id="rId16"/>
-    <sheet name="Syndication DTCAPI" sheetId="13" r:id="rId17"/>
-    <sheet name="SyndicationLPAD" sheetId="12" r:id="rId18"/>
-    <sheet name="PDF" sheetId="3" r:id="rId19"/>
-    <sheet name="SA_Filters" sheetId="4" r:id="rId20"/>
-    <sheet name="SA_Advanced_Filters" sheetId="5" r:id="rId21"/>
-    <sheet name="SA_Zoom" sheetId="16" r:id="rId22"/>
+    <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
+    <sheet name="Location_Page_Search" r:id="rId2" sheetId="22"/>
+    <sheet name="Facebook" r:id="rId3" sheetId="20"/>
+    <sheet name="Display_Review" r:id="rId4" sheetId="9"/>
+    <sheet name="Bing" r:id="rId5" sheetId="8"/>
+    <sheet name="FilterOrder" r:id="rId6" sheetId="17"/>
+    <sheet name="FilterOrderBing" r:id="rId7" sheetId="18"/>
+    <sheet name="FilterOrderFacebook" r:id="rId8" sheetId="19"/>
+    <sheet name="Duplicate_Management" r:id="rId9" sheetId="7"/>
+    <sheet name="Results" r:id="rId10" sheetId="15"/>
+    <sheet name="Sheet1" r:id="rId11" sheetId="6"/>
+    <sheet name="New Filters" r:id="rId12" sheetId="21"/>
+    <sheet name="BingZoom" r:id="rId13" sheetId="14"/>
+    <sheet name="Zoom" r:id="rId14" sheetId="2"/>
+    <sheet name="Syndication" r:id="rId15" sheetId="10"/>
+    <sheet name="Syndication DTCManual" r:id="rId16" sheetId="11"/>
+    <sheet name="Syndication DTCAPI" r:id="rId17" sheetId="13"/>
+    <sheet name="SyndicationLPAD" r:id="rId18" sheetId="12"/>
+    <sheet name="PDF" r:id="rId19" sheetId="3"/>
+    <sheet name="SA_Filters" r:id="rId20" sheetId="4"/>
+    <sheet name="SA_Advanced_Filters" r:id="rId21" sheetId="5"/>
+    <sheet name="SA_Zoom" r:id="rId22" sheetId="16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="136">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -446,22 +446,29 @@
     <t>Search By Phone</t>
   </si>
   <si>
-    <t>9000230163</t>
-  </si>
-  <si>
-    <t>Toronto</t>
-  </si>
-  <si>
-    <t>55425</t>
-  </si>
-  <si>
-    <t>+1 703-310-6711</t>
+    <t>9990308856</t>
+  </si>
+  <si>
+    <t>10038</t>
+  </si>
+  <si>
+    <t>+1 646-895-6831</t>
+  </si>
+  <si>
+    <t>101 Maiden</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Chicago</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -540,45 +547,45 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -595,10 +602,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -633,7 +640,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -685,7 +692,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -796,21 +803,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -827,7 +834,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -879,28 +886,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -948,10 +955,10 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -968,13 +975,13 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
@@ -988,7 +995,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -997,18 +1004,18 @@
         <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -1019,45 +1026,25 @@
       <c r="E6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>84</v>
+      <c r="F6" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF31050-A1CE-4806-A18B-82FAF036D110}">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF31050-A1CE-4806-A18B-82FAF036D110}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1086,14 +1073,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:E25"/>
@@ -1101,10 +1088,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1265,17 +1252,17 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73840A65-FD3F-4FC7-8FDF-F89283B3CCE3}">
-  <dimension ref="A1:J103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73840A65-FD3F-4FC7-8FDF-F89283B3CCE3}">
+  <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F7"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,7 +1380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>102</v>
       </c>
@@ -1543,7 +1530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>98</v>
       </c>
@@ -1718,7 +1705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>102</v>
       </c>
@@ -1897,7 +1884,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>98</v>
       </c>
@@ -2093,7 +2080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>102</v>
       </c>
@@ -2280,7 +2267,7 @@
       </c>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>102</v>
       </c>
@@ -2466,7 +2453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>102</v>
       </c>
@@ -2617,7 +2604,7 @@
       </c>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>98</v>
       </c>
@@ -2638,7 +2625,7 @@
       </c>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2700,14 +2687,14 @@
       <c r="G103" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC4A950-02FB-4771-9093-D3B7699EE31D}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC4A950-02FB-4771-9093-D3B7699EE31D}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:F3"/>
@@ -2772,13 +2759,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -2786,7 +2773,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2846,13 +2833,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -2860,9 +2847,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2912,12 +2899,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2926,10 +2913,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="102.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="102.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2943,7 +2930,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>62</v>
       </c>
@@ -2955,14 +2942,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -2970,9 +2957,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2998,13 +2985,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -3012,9 +2999,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="107" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="107.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3040,14 +3027,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -3092,30 +3079,30 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C76C6E-154C-4EE9-B021-C644C18DD456}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C76C6E-154C-4EE9-B021-C644C18DD456}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>123</v>
       </c>
@@ -3138,7 +3125,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>130</v>
       </c>
@@ -3146,30 +3133,30 @@
         <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G2" t="s">
-        <v>133</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -3177,17 +3164,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3228,14 +3215,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -3243,14 +3230,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3301,14 +3288,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3EA4CE-EDA7-4242-A743-BE83DBFF6070}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3EA4CE-EDA7-4242-A743-BE83DBFF6070}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -3373,13 +3360,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F635368-BB2D-4072-8E80-91DBE792F8EF}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F635368-BB2D-4072-8E80-91DBE792F8EF}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F6"/>
@@ -3387,7 +3374,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" customWidth="true" width="13.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3490,7 +3477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>98</v>
       </c>
@@ -3511,13 +3498,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
@@ -3566,13 +3553,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F6"/>
@@ -3580,12 +3567,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="9.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="47.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="7" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="8.0" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="7" width="47.28515625" collapsed="true"/>
+    <col min="7" max="16384" style="7" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3688,7 +3675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>98</v>
       </c>
@@ -3709,14 +3696,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0C12BF-7E83-4532-A128-E57EBFF1BF2D}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0C12BF-7E83-4532-A128-E57EBFF1BF2D}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -3724,8 +3711,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3745,7 +3732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3763,14 +3750,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2DE816-A9A4-4743-BF9C-2DEBCA2D1E71}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2DE816-A9A4-4743-BF9C-2DEBCA2D1E71}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -3778,7 +3765,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3798,7 +3785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3816,13 +3803,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97167B2-7C0B-4E15-B189-0ACF08094BA1}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97167B2-7C0B-4E15-B189-0ACF08094BA1}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -3847,7 +3834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3865,13 +3852,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
-  <dimension ref="A1:G1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -3879,11 +3866,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="75.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3909,7 +3896,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>81</v>
       </c>
@@ -4039,9 +4026,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{F1DC5D16-654A-4D10-A0DA-C3EC9A9CD3AC}"/>
+    <hyperlink r:id="rId1" ref="B2" xr:uid="{F1DC5D16-654A-4D10-A0DA-C3EC9A9CD3AC}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C4E34E0F-5FA2-4357-946F-0D33372E211E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{A8110932-DC6F-4A10-AE74-B6E193F09839}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="134">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -425,27 +425,6 @@
     <t>Aurify Brands - Date Filter - Location Level</t>
   </si>
   <si>
-    <t>Search By Location</t>
-  </si>
-  <si>
-    <t>Search By Name</t>
-  </si>
-  <si>
-    <t>Search By Address</t>
-  </si>
-  <si>
-    <t>Search By City</t>
-  </si>
-  <si>
-    <t>Search By State</t>
-  </si>
-  <si>
-    <t>Search By Postal Code</t>
-  </si>
-  <si>
-    <t>Search By Phone</t>
-  </si>
-  <si>
     <t>9990308856</t>
   </si>
   <si>
@@ -462,6 +441,21 @@
   </si>
   <si>
     <t>Chicago</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>St/Prov/Region</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
 </sst>
 </file>
@@ -894,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F6"/>
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,10 +949,10 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -975,13 +969,13 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
@@ -995,7 +989,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -1004,18 +998,18 @@
         <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row ht="15.75" r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -1026,8 +1020,28 @@
       <c r="E6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>90</v>
+      <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1261,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73840A65-FD3F-4FC7-8FDF-F89283B3CCE3}">
   <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:F98"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3087,9 +3101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C76C6E-154C-4EE9-B021-C644C18DD456}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3104,48 +3116,48 @@
   <sheetData>
     <row customFormat="1" r="1" s="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row ht="15.75" r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
         <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{A8110932-DC6F-4A10-AE74-B6E193F09839}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{875FC259-C7CC-4470-BEB6-B48D2AD2250B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
+    <workbookView activeTab="13" firstSheet="8" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="136">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -456,6 +456,12 @@
   </si>
   <si>
     <t>Phone</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
   </si>
 </sst>
 </file>
@@ -890,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
@@ -949,7 +955,7 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -969,7 +975,7 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -989,7 +995,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -1009,7 +1015,7 @@
         <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -1024,12 +1030,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -1040,8 +1046,8 @@
       <c r="E7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>84</v>
+      <c r="F7" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1275,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73840A65-FD3F-4FC7-8FDF-F89283B3CCE3}">
   <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:F33"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,7 +2208,7 @@
         <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>8</v>
@@ -2223,7 +2229,7 @@
         <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>27</v>
@@ -2244,7 +2250,7 @@
         <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>27</v>
@@ -2265,7 +2271,7 @@
         <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>27</v>
@@ -2286,7 +2292,7 @@
         <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>27</v>
@@ -2781,8 +2787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2827,7 +2833,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C3" s="3">
         <v>2021</v>
@@ -2836,7 +2842,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="F3" s="3">
         <v>2021</v>

--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,44 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{875FC259-C7CC-4470-BEB6-B48D2AD2250B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8B420A-F0F5-4D62-824F-ABA27E4F143D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="13" firstSheet="8" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
-    <sheet name="Location_Page_Search" r:id="rId2" sheetId="22"/>
-    <sheet name="Facebook" r:id="rId3" sheetId="20"/>
-    <sheet name="Display_Review" r:id="rId4" sheetId="9"/>
-    <sheet name="Bing" r:id="rId5" sheetId="8"/>
-    <sheet name="FilterOrder" r:id="rId6" sheetId="17"/>
-    <sheet name="FilterOrderBing" r:id="rId7" sheetId="18"/>
-    <sheet name="FilterOrderFacebook" r:id="rId8" sheetId="19"/>
-    <sheet name="Duplicate_Management" r:id="rId9" sheetId="7"/>
-    <sheet name="Results" r:id="rId10" sheetId="15"/>
-    <sheet name="Sheet1" r:id="rId11" sheetId="6"/>
-    <sheet name="New Filters" r:id="rId12" sheetId="21"/>
-    <sheet name="BingZoom" r:id="rId13" sheetId="14"/>
-    <sheet name="Zoom" r:id="rId14" sheetId="2"/>
-    <sheet name="Syndication" r:id="rId15" sheetId="10"/>
-    <sheet name="Syndication DTCManual" r:id="rId16" sheetId="11"/>
-    <sheet name="Syndication DTCAPI" r:id="rId17" sheetId="13"/>
-    <sheet name="SyndicationLPAD" r:id="rId18" sheetId="12"/>
-    <sheet name="PDF" r:id="rId19" sheetId="3"/>
-    <sheet name="SA_Filters" r:id="rId20" sheetId="4"/>
-    <sheet name="SA_Advanced_Filters" r:id="rId21" sheetId="5"/>
-    <sheet name="SA_Zoom" r:id="rId22" sheetId="16"/>
+    <sheet name="TPSEE" sheetId="1" r:id="rId1"/>
+    <sheet name="Location_Page_Search" sheetId="22" r:id="rId2"/>
+    <sheet name="Facebook" sheetId="20" r:id="rId3"/>
+    <sheet name="Display_Review" sheetId="9" r:id="rId4"/>
+    <sheet name="Bing" sheetId="8" r:id="rId5"/>
+    <sheet name="FilterOrder" sheetId="17" r:id="rId6"/>
+    <sheet name="FilterOrderBing" sheetId="18" r:id="rId7"/>
+    <sheet name="FilterOrderFacebook" sheetId="19" r:id="rId8"/>
+    <sheet name="Duplicate_Management" sheetId="7" r:id="rId9"/>
+    <sheet name="Results" sheetId="15" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId11"/>
+    <sheet name="New Filters" sheetId="21" r:id="rId12"/>
+    <sheet name="BingZoom" sheetId="14" r:id="rId13"/>
+    <sheet name="Zoom" sheetId="2" r:id="rId14"/>
+    <sheet name="Syndication" sheetId="10" r:id="rId15"/>
+    <sheet name="Syndication DTCManual" sheetId="11" r:id="rId16"/>
+    <sheet name="Syndication DTCAPI" sheetId="13" r:id="rId17"/>
+    <sheet name="SyndicationLPAD" sheetId="12" r:id="rId18"/>
+    <sheet name="PDF" sheetId="3" r:id="rId19"/>
+    <sheet name="SA_Filters" sheetId="4" r:id="rId20"/>
+    <sheet name="SA_Advanced_Filters" sheetId="5" r:id="rId21"/>
+    <sheet name="SA_Zoom" sheetId="16" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -468,7 +468,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -547,45 +546,45 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -602,10 +601,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -640,7 +639,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -692,7 +691,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -803,21 +802,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -834,7 +833,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -886,28 +885,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -955,7 +954,7 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -975,7 +974,7 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -995,7 +994,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -1015,7 +1014,7 @@
         <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -1030,12 +1029,12 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="15.75" r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -1046,25 +1045,25 @@
       <c r="E7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>90</v>
+      <c r="F7" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF31050-A1CE-4806-A18B-82FAF036D110}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF31050-A1CE-4806-A18B-82FAF036D110}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1093,14 +1092,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:E25"/>
@@ -1108,10 +1107,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1272,17 +1271,17 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73840A65-FD3F-4FC7-8FDF-F89283B3CCE3}">
-  <dimension ref="A1:K103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73840A65-FD3F-4FC7-8FDF-F89283B3CCE3}">
+  <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:F85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="45" r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>102</v>
       </c>
@@ -1550,7 +1549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="30" r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>98</v>
       </c>
@@ -1725,7 +1724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="45" r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>102</v>
       </c>
@@ -1904,7 +1903,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row ht="45" r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>98</v>
       </c>
@@ -2100,7 +2099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="15.75" r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>102</v>
       </c>
@@ -2287,7 +2286,7 @@
       </c>
       <c r="G71" s="2"/>
     </row>
-    <row ht="15.75" r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>102</v>
       </c>
@@ -2473,7 +2472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="15.75" r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>102</v>
       </c>
@@ -2624,7 +2623,7 @@
       </c>
       <c r="G97" s="2"/>
     </row>
-    <row ht="15.75" r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>98</v>
       </c>
@@ -2645,7 +2644,7 @@
       </c>
       <c r="G98" s="2"/>
     </row>
-    <row ht="15.75" r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2707,14 +2706,14 @@
       <c r="G103" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC4A950-02FB-4771-9093-D3B7699EE31D}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC4A950-02FB-4771-9093-D3B7699EE31D}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:F3"/>
@@ -2779,21 +2778,21 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2853,13 +2852,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -2867,9 +2866,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2919,12 +2918,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2933,10 +2932,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="102.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="102.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2950,7 +2949,7 @@
         <v>58</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>62</v>
       </c>
@@ -2962,14 +2961,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -2977,9 +2976,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3005,13 +3004,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -3019,9 +3018,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="107.0" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="107" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3047,14 +3046,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -3099,28 +3098,28 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C76C6E-154C-4EE9-B021-C644C18DD456}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C76C6E-154C-4EE9-B021-C644C18DD456}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
@@ -3143,7 +3142,7 @@
         <v>133</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>123</v>
       </c>
@@ -3167,14 +3166,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -3182,17 +3181,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3233,14 +3232,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -3248,14 +3247,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3306,14 +3305,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3EA4CE-EDA7-4242-A743-BE83DBFF6070}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3EA4CE-EDA7-4242-A743-BE83DBFF6070}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -3378,13 +3377,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F635368-BB2D-4072-8E80-91DBE792F8EF}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F635368-BB2D-4072-8E80-91DBE792F8EF}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F6"/>
@@ -3392,7 +3391,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3495,7 +3494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="15.75" r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>98</v>
       </c>
@@ -3516,13 +3515,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
@@ -3571,13 +3570,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F6"/>
@@ -3585,12 +3584,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="8.0" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="7" width="47.28515625" collapsed="true"/>
-    <col min="7" max="16384" style="7" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="9.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="47.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="7" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3693,7 +3692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="15.75" r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>98</v>
       </c>
@@ -3714,14 +3713,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0C12BF-7E83-4532-A128-E57EBFF1BF2D}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0C12BF-7E83-4532-A128-E57EBFF1BF2D}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -3729,8 +3728,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3750,7 +3749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3768,14 +3767,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2DE816-A9A4-4743-BF9C-2DEBCA2D1E71}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2DE816-A9A4-4743-BF9C-2DEBCA2D1E71}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -3783,7 +3782,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3803,7 +3802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3821,13 +3820,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97167B2-7C0B-4E15-B189-0ACF08094BA1}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97167B2-7C0B-4E15-B189-0ACF08094BA1}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -3852,7 +3851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3870,13 +3869,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
-  <dimension ref="A1:H1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -3884,11 +3883,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="75.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3914,7 +3913,7 @@
         <v>68</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>81</v>
       </c>
@@ -4044,9 +4043,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2" xr:uid="{F1DC5D16-654A-4D10-A0DA-C3EC9A9CD3AC}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F1DC5D16-654A-4D10-A0DA-C3EC9A9CD3AC}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8B420A-F0F5-4D62-824F-ABA27E4F143D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD288F5-07D2-463B-9BAB-CFFD25CD9644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="13" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}"/>
   </bookViews>
   <sheets>
     <sheet name="TPSEE" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="137">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>July</t>
+  </si>
+  <si>
+    <t>877 8th Ave</t>
   </si>
 </sst>
 </file>
@@ -895,7 +898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
@@ -1046,7 +1049,7 @@
         <v>83</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1284,7 @@
   <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F7"/>
+      <selection activeCell="F7" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,7 +1402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>102</v>
       </c>
@@ -1416,7 +1419,7 @@
         <v>83</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2786,8 +2789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3383,10 +3386,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F635368-BB2D-4072-8E80-91DBE792F8EF}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F6"/>
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3439,10 +3442,10 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -3459,13 +3462,13 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
@@ -3479,7 +3482,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -3488,18 +3491,18 @@
         <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -3510,8 +3513,28 @@
       <c r="E6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>90</v>
+      <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3576,10 +3599,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F6"/>
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3637,10 +3660,10 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -3657,13 +3680,13 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
@@ -3677,7 +3700,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -3686,18 +3709,18 @@
         <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -3708,8 +3731,28 @@
       <c r="E6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>90</v>
+      <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,44 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD288F5-07D2-463B-9BAB-CFFD25CD9644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2D0358DB-6E2F-4A15-8EFC-2D04426B31EC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="13" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}"/>
+    <workbookView activeTab="13" firstSheet="10" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="TPSEE" sheetId="1" r:id="rId1"/>
-    <sheet name="Location_Page_Search" sheetId="22" r:id="rId2"/>
-    <sheet name="Facebook" sheetId="20" r:id="rId3"/>
-    <sheet name="Display_Review" sheetId="9" r:id="rId4"/>
-    <sheet name="Bing" sheetId="8" r:id="rId5"/>
-    <sheet name="FilterOrder" sheetId="17" r:id="rId6"/>
-    <sheet name="FilterOrderBing" sheetId="18" r:id="rId7"/>
-    <sheet name="FilterOrderFacebook" sheetId="19" r:id="rId8"/>
-    <sheet name="Duplicate_Management" sheetId="7" r:id="rId9"/>
-    <sheet name="Results" sheetId="15" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId11"/>
-    <sheet name="New Filters" sheetId="21" r:id="rId12"/>
-    <sheet name="BingZoom" sheetId="14" r:id="rId13"/>
-    <sheet name="Zoom" sheetId="2" r:id="rId14"/>
-    <sheet name="Syndication" sheetId="10" r:id="rId15"/>
-    <sheet name="Syndication DTCManual" sheetId="11" r:id="rId16"/>
-    <sheet name="Syndication DTCAPI" sheetId="13" r:id="rId17"/>
-    <sheet name="SyndicationLPAD" sheetId="12" r:id="rId18"/>
-    <sheet name="PDF" sheetId="3" r:id="rId19"/>
-    <sheet name="SA_Filters" sheetId="4" r:id="rId20"/>
-    <sheet name="SA_Advanced_Filters" sheetId="5" r:id="rId21"/>
-    <sheet name="SA_Zoom" sheetId="16" r:id="rId22"/>
+    <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
+    <sheet name="Location_Page_Search" r:id="rId2" sheetId="22"/>
+    <sheet name="Facebook" r:id="rId3" sheetId="20"/>
+    <sheet name="Display_Review" r:id="rId4" sheetId="9"/>
+    <sheet name="Bing" r:id="rId5" sheetId="8"/>
+    <sheet name="FilterOrder" r:id="rId6" sheetId="17"/>
+    <sheet name="FilterOrderBing" r:id="rId7" sheetId="18"/>
+    <sheet name="FilterOrderFacebook" r:id="rId8" sheetId="19"/>
+    <sheet name="Duplicate_Management" r:id="rId9" sheetId="7"/>
+    <sheet name="Results" r:id="rId10" sheetId="15"/>
+    <sheet name="Sheet1" r:id="rId11" sheetId="6"/>
+    <sheet name="New Filters" r:id="rId12" sheetId="21"/>
+    <sheet name="BingZoom" r:id="rId13" sheetId="14"/>
+    <sheet name="Zoom" r:id="rId14" sheetId="2"/>
+    <sheet name="Syndication" r:id="rId15" sheetId="10"/>
+    <sheet name="Syndication DTCManual" r:id="rId16" sheetId="11"/>
+    <sheet name="Syndication DTCAPI" r:id="rId17" sheetId="13"/>
+    <sheet name="SyndicationLPAD" r:id="rId18" sheetId="12"/>
+    <sheet name="PDF" r:id="rId19" sheetId="3"/>
+    <sheet name="SA_Filters" r:id="rId20" sheetId="4"/>
+    <sheet name="SA_Advanced_Filters" r:id="rId21" sheetId="5"/>
+    <sheet name="SA_Zoom" r:id="rId22" sheetId="16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -458,19 +458,20 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>June</t>
-  </si>
-  <si>
     <t>July</t>
   </si>
   <si>
     <t>877 8th Ave</t>
+  </si>
+  <si>
+    <t>August</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -549,45 +550,45 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -604,10 +605,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -642,7 +643,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -694,7 +695,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -805,21 +806,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -836,7 +837,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -888,15 +889,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3AEA1-2378-4CC5-8688-3FA41A2FBF10}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F7"/>
@@ -904,12 +905,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1049,24 +1050,24 @@
         <v>83</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF31050-A1CE-4806-A18B-82FAF036D110}">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF31050-A1CE-4806-A18B-82FAF036D110}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1095,14 +1096,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:E25"/>
@@ -1110,10 +1111,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="90.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="90.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1274,14 +1275,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73840A65-FD3F-4FC7-8FDF-F89283B3CCE3}">
-  <dimension ref="A1:J103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73840A65-FD3F-4FC7-8FDF-F89283B3CCE3}">
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="A2:F7"/>
@@ -1402,7 +1403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>102</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>83</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1552,7 +1553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>98</v>
       </c>
@@ -1727,7 +1728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>102</v>
       </c>
@@ -1906,7 +1907,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>98</v>
       </c>
@@ -2102,7 +2103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>102</v>
       </c>
@@ -2289,7 +2290,7 @@
       </c>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>102</v>
       </c>
@@ -2475,7 +2476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>102</v>
       </c>
@@ -2626,7 +2627,7 @@
       </c>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>98</v>
       </c>
@@ -2647,7 +2648,7 @@
       </c>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2709,14 +2710,14 @@
       <c r="G103" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC4A950-02FB-4771-9093-D3B7699EE31D}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC4A950-02FB-4771-9093-D3B7699EE31D}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:F3"/>
@@ -2781,21 +2782,21 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2832,7 +2833,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>134</v>
@@ -2841,10 +2842,10 @@
         <v>2021</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F3" s="3">
         <v>2021</v>
@@ -2855,13 +2856,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -2869,9 +2870,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2921,12 +2922,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2935,10 +2936,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="102.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="102.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2952,7 +2953,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>62</v>
       </c>
@@ -2964,14 +2965,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -2979,9 +2980,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3007,13 +3008,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -3021,9 +3022,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="107" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="107.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3049,14 +3050,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -3101,28 +3102,28 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C76C6E-154C-4EE9-B021-C644C18DD456}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C76C6E-154C-4EE9-B021-C644C18DD456}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
@@ -3145,7 +3146,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>123</v>
       </c>
@@ -3169,14 +3170,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -3184,17 +3185,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3235,14 +3236,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -3250,14 +3251,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3308,14 +3309,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3EA4CE-EDA7-4242-A743-BE83DBFF6070}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3EA4CE-EDA7-4242-A743-BE83DBFF6070}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -3380,13 +3381,13 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F635368-BB2D-4072-8E80-91DBE792F8EF}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F635368-BB2D-4072-8E80-91DBE792F8EF}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F7"/>
@@ -3394,7 +3395,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" customWidth="true" width="13.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3534,17 +3535,17 @@
         <v>83</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
@@ -3593,13 +3594,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F7"/>
@@ -3607,12 +3608,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="9.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="47.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="7" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="8.0" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="7" width="47.28515625" collapsed="true"/>
+    <col min="7" max="16384" style="7" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3752,18 +3753,18 @@
         <v>83</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0C12BF-7E83-4532-A128-E57EBFF1BF2D}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0C12BF-7E83-4532-A128-E57EBFF1BF2D}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -3771,8 +3772,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3792,7 +3793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3810,14 +3811,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2DE816-A9A4-4743-BF9C-2DEBCA2D1E71}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2DE816-A9A4-4743-BF9C-2DEBCA2D1E71}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -3825,7 +3826,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3845,7 +3846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3863,13 +3864,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97167B2-7C0B-4E15-B189-0ACF08094BA1}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97167B2-7C0B-4E15-B189-0ACF08094BA1}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -3894,7 +3895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3912,13 +3913,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
-  <dimension ref="A1:G1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -3926,11 +3927,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="75.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3956,7 +3957,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>81</v>
       </c>
@@ -4086,9 +4087,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{F1DC5D16-654A-4D10-A0DA-C3EC9A9CD3AC}"/>
+    <hyperlink r:id="rId1" ref="B2" xr:uid="{F1DC5D16-654A-4D10-A0DA-C3EC9A9CD3AC}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data/Filter.xlsx
+++ b/data/Filter.xlsx
@@ -1,40 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{2D0358DB-6E2F-4A15-8EFC-2D04426B31EC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{25D5EE5D-9758-4A78-83A9-762988BB82A9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="13" firstSheet="10" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
+    <workbookView activeTab="6" firstSheet="3" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{8A6A3122-5A59-4742-9374-8B4B8D56E6ED}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="TPSEE" r:id="rId1" sheetId="1"/>
-    <sheet name="Location_Page_Search" r:id="rId2" sheetId="22"/>
-    <sheet name="Facebook" r:id="rId3" sheetId="20"/>
-    <sheet name="Display_Review" r:id="rId4" sheetId="9"/>
-    <sheet name="Bing" r:id="rId5" sheetId="8"/>
-    <sheet name="FilterOrder" r:id="rId6" sheetId="17"/>
-    <sheet name="FilterOrderBing" r:id="rId7" sheetId="18"/>
-    <sheet name="FilterOrderFacebook" r:id="rId8" sheetId="19"/>
-    <sheet name="Duplicate_Management" r:id="rId9" sheetId="7"/>
-    <sheet name="Results" r:id="rId10" sheetId="15"/>
-    <sheet name="Sheet1" r:id="rId11" sheetId="6"/>
-    <sheet name="New Filters" r:id="rId12" sheetId="21"/>
-    <sheet name="BingZoom" r:id="rId13" sheetId="14"/>
-    <sheet name="Zoom" r:id="rId14" sheetId="2"/>
-    <sheet name="Syndication" r:id="rId15" sheetId="10"/>
-    <sheet name="Syndication DTCManual" r:id="rId16" sheetId="11"/>
-    <sheet name="Syndication DTCAPI" r:id="rId17" sheetId="13"/>
-    <sheet name="SyndicationLPAD" r:id="rId18" sheetId="12"/>
-    <sheet name="PDF" r:id="rId19" sheetId="3"/>
-    <sheet name="SA_Filters" r:id="rId20" sheetId="4"/>
-    <sheet name="SA_Advanced_Filters" r:id="rId21" sheetId="5"/>
-    <sheet name="SA_Zoom" r:id="rId22" sheetId="16"/>
+    <sheet name="Maximizer" r:id="rId2" sheetId="23"/>
+    <sheet name="Maximizer_LPAD_Reco" r:id="rId3" sheetId="24"/>
+    <sheet name="Location_Page_Search" r:id="rId4" sheetId="22"/>
+    <sheet name="Facebook" r:id="rId5" sheetId="20"/>
+    <sheet name="Display_Review" r:id="rId6" sheetId="9"/>
+    <sheet name="Bing" r:id="rId7" sheetId="8"/>
+    <sheet name="FilterOrder" r:id="rId8" sheetId="17"/>
+    <sheet name="FilterOrderBing" r:id="rId9" sheetId="18"/>
+    <sheet name="FilterOrderFacebook" r:id="rId10" sheetId="19"/>
+    <sheet name="Duplicate_Management" r:id="rId11" sheetId="7"/>
+    <sheet name="Results" r:id="rId12" sheetId="15"/>
+    <sheet name="Sheet1" r:id="rId13" sheetId="6"/>
+    <sheet name="New Filters" r:id="rId14" sheetId="21"/>
+    <sheet name="BingZoom" r:id="rId15" sheetId="14"/>
+    <sheet name="Zoom" r:id="rId16" sheetId="2"/>
+    <sheet name="Syndication" r:id="rId17" sheetId="10"/>
+    <sheet name="Syndication DTCManual" r:id="rId18" sheetId="11"/>
+    <sheet name="Syndication DTCAPI" r:id="rId19" sheetId="13"/>
+    <sheet name="SyndicationLPAD" r:id="rId20" sheetId="12"/>
+    <sheet name="PDF" r:id="rId21" sheetId="3"/>
+    <sheet name="SA_Filters" r:id="rId22" sheetId="4"/>
+    <sheet name="SA_Advanced_Filters" r:id="rId23" sheetId="5"/>
+    <sheet name="SA_Zoom" r:id="rId24" sheetId="16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="363">
   <si>
     <t>FilterScenarioNum</t>
   </si>
@@ -458,13 +460,723 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>877 8th Ave</t>
-  </si>
-  <si>
-    <t>August</t>
+    <t>Location Search Filter - Beta</t>
+  </si>
+  <si>
+    <t>Location Search Filter - Staging</t>
+  </si>
+  <si>
+    <t>9000508029</t>
+  </si>
+  <si>
+    <t>Aloft Panama</t>
+  </si>
+  <si>
+    <t>Mecca St. 194</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>+44 121 407 4180</t>
+  </si>
+  <si>
+    <t>Reco Type</t>
+  </si>
+  <si>
+    <t>Area your business serves</t>
+  </si>
+  <si>
+    <t>Local Phone Number</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Payment Types</t>
+  </si>
+  <si>
+    <t>Languages Supported</t>
+  </si>
+  <si>
+    <t>Local Website URL</t>
+  </si>
+  <si>
+    <t>Business Website</t>
+  </si>
+  <si>
+    <t>Business Description</t>
+  </si>
+  <si>
+    <t>GMB Business Description</t>
+  </si>
+  <si>
+    <t>Regular Hours</t>
+  </si>
+  <si>
+    <t>Special Hours (Holidays)</t>
+  </si>
+  <si>
+    <t>Business Logo</t>
+  </si>
+  <si>
+    <t>Photos</t>
+  </si>
+  <si>
+    <t>Secondary Business Categories</t>
+  </si>
+  <si>
+    <t>Cover Photo</t>
+  </si>
+  <si>
+    <t>Pin Drop</t>
+  </si>
+  <si>
+    <t>Date Founded</t>
+  </si>
+  <si>
+    <t>Exterior Photos</t>
+  </si>
+  <si>
+    <t>Interior Photos</t>
+  </si>
+  <si>
+    <t>Product Photos</t>
+  </si>
+  <si>
+    <t>Food &amp; Drink Photos</t>
+  </si>
+  <si>
+    <t>Common Area Photos</t>
+  </si>
+  <si>
+    <t>Room Photos</t>
+  </si>
+  <si>
+    <t>Team Photos</t>
+  </si>
+  <si>
+    <t>Menu Photos</t>
+  </si>
+  <si>
+    <t>Photos at Work</t>
+  </si>
+  <si>
+    <t>Reservations URL</t>
+  </si>
+  <si>
+    <t>Appointment URL</t>
+  </si>
+  <si>
+    <t>Facebook URL</t>
+  </si>
+  <si>
+    <t>Twitter URL</t>
+  </si>
+  <si>
+    <t>LinkedIn URL</t>
+  </si>
+  <si>
+    <t>Pinterest URL</t>
+  </si>
+  <si>
+    <t>Instagram URL</t>
+  </si>
+  <si>
+    <t>Amenities &amp; Attributes</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding in your areas served helps clarify where and when your business should be shown online. Enter this in to clarify what geographies your business serves. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumers love to see that your business is local and a local phone number with a local area code is a great way to convey this. Enter in a local phone number and increase your conversion rates. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumers love to learn about your menu before they interact with your business. Enter in your menu now and provide a better customer experience. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumers like choices in how to pay and confirming the different payment types you'll accept like Apple Pay, credit cards or cash are a great way to help consumers plan before they interact with your business. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumers need to know the languages you suppport and if you speak or support multiple languages it can have a huge impact on the types of consumers you attract. Stand out from your competitors by showcasing a language you support that they don't. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's really important for potential customers of your business to be able to get more information and your website is where consumers like to confirm details about your business. Plus the website tied to GMB is a huge ranking factor. Enter in your local website URL and help the customer experience and boost your rankings. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If your business is a large brand, or part of a larger brand you should confirm the root business website. This helps consumers know you are part of the larger brand. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The business description is your opportunity to showcase why a potential customer should choose your business. Don't miss out on the chance to make your business shine, enter in your business description to increase the chance of somebody choosing your business. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google My Business has it's own business description field and this field can be used to highlight your unique selling proposition. Don't miss out on the opportunity to show a potential customer why they should choose your business. Enter a GMB Business Description now. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumers need to know when your business is open, so enter in your hours and confirm these details. It will help cut down on calls to your business where people are just asking you to confirm your hours. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's super important to confirm your holiday hours to your customers so they know when you are open. Even if your hours are unchanged, it's best practice to confirm them via special hours. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your logo is a big piece of your brand and helps confirm who you are. Ensure the proper customer experience and upload your logo now. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photos are critical to showcase your business and consumers love to view them. Don't miss out on conversions due to missing photos. Adding in rich, diverse and high quality photos will  help consumers move from potential customer to actual customer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary categories help confirm throughout our listing network what queries your business should rank for. By adding these secondary categories you're confirming what you should rank for. Don't miss out on leads and double-check you have all of the applicable secondary categories available entered in. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cover photo helps showcase your brands personality and will help make a strong first impression and attract more online visitors. Ensure the right first impression with a high quality cover photo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensuring that your pin drop is correct is paramount for local search. A huge conversion point will be consumers requesting driving directions and these won't end in the right point if we don't confirm where to drop the pin on maps. Double check that the pin is dropping where driving direction requests should end. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumers want to know if you are a fresh or established business, so enter in the date you were founded to highlight this detail about your business. </t>
+  </si>
+  <si>
+    <t>Exterior photos help customers recognize your business as they approach from different directions.</t>
+  </si>
+  <si>
+    <t>Interior photos help your customers get a feel for the ambiance and decor of your business.</t>
+  </si>
+  <si>
+    <t>If you sell products, then great photos of representative or popular products give customers a better understanding of the kinds of goods you offer.</t>
+  </si>
+  <si>
+    <t>If you sell food, then food &amp; drink photos add color and detail to your menu and help customers plan where to eat.</t>
+  </si>
+  <si>
+    <t>Photos of your common areas help attract customers who are planning business or leisure travel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customers rely heavily on photos of guest rooms when deciding where to book their next hotel for business or leisure. Make sure they can see the rooms you want them to book. </t>
+  </si>
+  <si>
+    <t>Team photos are important to present a more personal side of your establishment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you support a menu, consumers will want to see real life photos of the menu or menus you have. Confirming the details will help move consumers through the conversion funnel. </t>
+  </si>
+  <si>
+    <t>If applicable, these photos help customers quickly understand the type of work you do.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you take reservations then it is essential to populate this field. Reservations drive revenue. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you support apointments then it is essential to populate this field. Appointments drive revenue. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social media plays a big part of any businesses success. Ensure that your listings and social media are working together and populate your Facebook URL to ensure consumers can easily see what you are posting. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social media plays a big part of any businesses success. Ensure that your listings and social media are working together and populate your Twitter URL to ensure consumers can easily see what you are tweeting. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social media plays a big part of any businesses success. Ensure that your listings and social media are working together and populate your LinkedIn URL to ensure consumers can easily see what you are posting. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social media plays a big part of any businesses success. Ensure that your listings and social media are working together and populate your Pinterest URL to ensure consumers can easily see what you are posting. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social media plays a big part of any businesses success. Ensure that your listings and social media are working together and populate your Instagram URL to ensure consumers can easily see what you are posting. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amenties and attributes help local lisitng sites to understand what your business offers, plus it helps consumers with choosing the right business. Confirming the details about your business helps with customer experience and rankings so don't miss out and complete these today. </t>
+  </si>
+  <si>
+    <t>Local Rank+</t>
+  </si>
+  <si>
+    <t>Custom Pin Placement</t>
+  </si>
+  <si>
+    <t>Local Rank+ Review Volume</t>
+  </si>
+  <si>
+    <t>Local Rank+ Star Rating</t>
+  </si>
+  <si>
+    <t>Business Name - Keyword Presence</t>
+  </si>
+  <si>
+    <t>Competitor Business Name - Keyword Presence</t>
+  </si>
+  <si>
+    <t>Business Name - Competitor Spam</t>
+  </si>
+  <si>
+    <t>Local Rank+ can help highlight where there is opportunity to increase visibility by detailing how your business ranks depending upon where a customer is physically located.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure that your Local Rank+ pins are all set in geographies important to your business. Custom pin placement is a great way to ensure we're collecting data on places you care about. </t>
+  </si>
+  <si>
+    <t>Having a larger total of reviews than your competition is a way to help your business stand out and can positively influence your online presence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensuring that your business is highly rated is tablestakes for success in local search. If you aren't as highly rated versus your competition then consumers will most likely choose their brand. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The presence of the keyword you are trying to rank for being included in the name of your business is a major ranking factor. If possible, adding it will help your rankings. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your competitors have included the keyword you're trying to rank for in their business name. This gives them a ranking boost. If possible, add this to your business name to level the playing field. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fake listings exist on Google Maps and we might have found some that are ranking in searches valuable to your business. Investigating and potentially removing them could provide you with a ranking boost. </t>
+  </si>
+  <si>
+    <t>Google Questions &amp; Answers</t>
+  </si>
+  <si>
+    <t>Unanswered Question(s)</t>
+  </si>
+  <si>
+    <t>Owner Unanswered Question(s)</t>
+  </si>
+  <si>
+    <t>FAQ's</t>
+  </si>
+  <si>
+    <t>FAQ Volume</t>
+  </si>
+  <si>
+    <t>FAQ Content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumers are asking questions on your Google business profiles. Make sure you can see what is being asked and you can respond in an efficient manner. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumers are asking questions on your Google business profiles and they haven't received answers yet. Ensure the right answer by answering yourself. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumers are asking questions on your Google business profiles and they have only received a response from the general public. Take control of the narrative and ensure the right answer by answering yourself. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumers have questions about your locations, so to get in front of them you can pre-populate your most frequently asked questions and answers. Get ahead of the curve and answer questions before consumers even know they have them. </t>
+  </si>
+  <si>
+    <t>Consumers have questions about your locations, so to get in front of them you can pre-populate your most frequently asked questions and answers. Get ahead of the curve and answer questions before consumers even know they have them. We recommend having at least 10 FAQ's.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content matters to SEO, so to help Google more clearly understand what you're business does it can't hurt to mention the keywords you're trying to rank for in Local Rank+ in the Google Q&amp;A section. </t>
+  </si>
+  <si>
+    <t>Google Posts</t>
+  </si>
+  <si>
+    <t>Recent Posts</t>
+  </si>
+  <si>
+    <t>Covid-19 Reponse</t>
+  </si>
+  <si>
+    <t>Google Post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Posts are a great way to push marketing or notifications to consumers looking at your GMB profile. Posts are pretty much free display advertising, so begin taking advantage of this today.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Having fresh Google Posts are key as What's New posts can expire after 7 days, so ensure you're displaying an active Google Post with a time sensitive message or offer to entice consumers to contact your business. </t>
+  </si>
+  <si>
+    <t>If your business has been effected by Covid-19 and you need to get out a message about your operational status or a warning about procedure/safety, then there is no better way to inform consumers lookings at your GMB profile than to utilize the Covid-19 type Google Post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In an attempt to improve results for your locations from a ranking perspective, it makes sense to include the keywords in the copy you're trying to rank for. Ensure the  keywords you've entered into Local Rank+ are mentioned in your Google Posts. </t>
+  </si>
+  <si>
+    <t>Negative Reviews - No Response</t>
+  </si>
+  <si>
+    <t>Postive Reviews - No Response</t>
+  </si>
+  <si>
+    <t>Below 4.0 Star Rating</t>
+  </si>
+  <si>
+    <t>Recent Reviews</t>
+  </si>
+  <si>
+    <t>Review Assistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The increase in trustworthiness a business gains when they respond to reviews is over 1.7X, so respond to reviews today. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15% is the churn risk businesses take by not responding to reviews. Provide great customer service today and respond. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">48% of consumers only pay attention to reviews written within the past 2 weeks, so generate new reviews today. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The average business sees a 35% increase in revenue when they respond to at least 25% of their reviews. Let the Respond to Review Assistant help generate revenue today by turning it on. </t>
+  </si>
+  <si>
+    <t>location(s) missing an area served. Please enter areas served for each location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location(s) missing a local phone number. Please enter a local phone number for each location. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">location(s) missing a menu. Please enter a menu for each location. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">location(s) missing information about accepted payment types. Please enter accepted payment types for each location. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">location(s) missing supported languages. Please enter supported languages for each location. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">location(s) missing a local website URL. Please enter a local website URL for each location. </t>
+  </si>
+  <si>
+    <t>location(s) missing a business website. Please enter a business website for each location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location(s) missing a business description. Please enter a business description for each location. </t>
+  </si>
+  <si>
+    <t>location(s) missing a GMB business description. Please enter a GMB business description for each location.</t>
+  </si>
+  <si>
+    <t>location(s) missing regular hours. Pleas enter regular hours for each location.</t>
+  </si>
+  <si>
+    <t>location(s) missing special hours for [x] holiday. Please enter special hours for each location.</t>
+  </si>
+  <si>
+    <t>location(s) missing a logo. Please upload a logo for each location.</t>
+  </si>
+  <si>
+    <t>location(s) missing supporting photos. Please upload photos for each location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location(s) missing secondary categories. Please enter in a maximum of 9 secondary categories for each location. </t>
+  </si>
+  <si>
+    <t>location(s) missing a cover photo. Please upload a cover photo for each location.</t>
+  </si>
+  <si>
+    <t>location(s) don't have a confirmed pin drop on the map. Please confirm the physical location for each location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location(s) missing the date your business was founded. Please enter dates for each locations. </t>
+  </si>
+  <si>
+    <t>location(s) missing exterior photos. Please upload exterior photos for each locations.</t>
+  </si>
+  <si>
+    <t>location(s) missing interior photos. Please upload interior photos for each locations.</t>
+  </si>
+  <si>
+    <t>location(s) missing product photos. Please upload product photos for each locations.</t>
+  </si>
+  <si>
+    <t>location(s) missing food &amp; drink photos. Please upload food &amp; drink photos for each locations</t>
+  </si>
+  <si>
+    <t>location(s) missing common area photos. Please upload common area photos for each locations.</t>
+  </si>
+  <si>
+    <t>location(s) missing room photos. Please upload room photos for each locations.</t>
+  </si>
+  <si>
+    <t>location(s) missing team photos. Please upload team photos for each locations.</t>
+  </si>
+  <si>
+    <t>location(s) missing menu photos. Please upload menu photos for each locations.</t>
+  </si>
+  <si>
+    <t>locations(s) missing work photos. Please upload work photos for each locations.</t>
+  </si>
+  <si>
+    <t>location(s) missing work photos. Please upload work photos for each locations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location(s) missing an appointment URL. Please enter an appointment URL for each locations. </t>
+  </si>
+  <si>
+    <t>location(s) missing a Facebook URL. Please enter a Facebook URL where applicable.</t>
+  </si>
+  <si>
+    <t>location(s) missing a Twitter URL. Please enter a Twitter URL where applicable.</t>
+  </si>
+  <si>
+    <t>location(s) missing a LinkedIn URL. Please enter a LinkedIn URL where applicable.</t>
+  </si>
+  <si>
+    <t>location(s) missing a Pinterest URL. Please enter a Pinterest URL where applicable.</t>
+  </si>
+  <si>
+    <t>location(s) missing an Instagram URL. Please enter an Instagram URL where applicable.</t>
+  </si>
+  <si>
+    <t>location(s) missing amenities or attributes. Please confirm features available at each location.</t>
+  </si>
+  <si>
+    <t>You do not have Local Rank+ active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of locations are using default pin distance. </t>
+  </si>
+  <si>
+    <t>number of locations have less reviews than their top competitors.</t>
+  </si>
+  <si>
+    <t>number of locations have a lower average star rating than their top competitors.</t>
+  </si>
+  <si>
+    <t>number of  locations do not have keywords in their business name.</t>
+  </si>
+  <si>
+    <t>number of  locations have 1 or more compeditors with keywords in their business name.</t>
+  </si>
+  <si>
+    <t>number of  locations have compeditors suspected of keyword stuffing.</t>
+  </si>
+  <si>
+    <t>You do not have Google Q&amp;A active for</t>
+  </si>
+  <si>
+    <t>location(s) that do not have an answer to questions.</t>
+  </si>
+  <si>
+    <t>that do not have an Owner Answer to questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that do not have any self published questions and answers. </t>
+  </si>
+  <si>
+    <t>that have less than 10 self published questions and answers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that do not have a self published question that contain the keywords entered in Local Rank+. </t>
+  </si>
+  <si>
+    <t>You do not have Google Posts publishing active for</t>
+  </si>
+  <si>
+    <t>that have not published a Google Post in the last 30 days</t>
+  </si>
+  <si>
+    <t>You do not have Covid-19 Google Posts active for</t>
+  </si>
+  <si>
+    <r>
+      <t>that have not included a keyword from Local Rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t> in a Google Post.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">location(s) have negative reviews (star rating of 1 - 3) that have no response provided. Please respond to negative reviews for all impacted locations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">location(s) with positive reviews (star rating of 4 - 5) have no response provided. Please respond to postive reviews for all impacted locations. </t>
+  </si>
+  <si>
+    <t>location(s) have no new reviews in the Last 30 days.</t>
+  </si>
+  <si>
+    <t>location(s) do not have Respond to Reviews Assistant active.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The average GMB star rating for any business is 4.08 and only 53% of people would consider using a business with less than 4 stars. 4.0 is the breakpoint where consumers trust a brand, so generate higher review stars today. </t>
+  </si>
+  <si>
+    <t>location(s) currently have a star rating under 4.</t>
+  </si>
+  <si>
+    <t>Recommendation Type</t>
+  </si>
+  <si>
+    <t>Special Hours Holiday(s)</t>
+  </si>
+  <si>
+    <t>Reservation URL</t>
+  </si>
+  <si>
+    <t>Order Ahead URL</t>
+  </si>
+  <si>
+    <t>Chain Name</t>
+  </si>
+  <si>
+    <t>Photos At Work</t>
+  </si>
+  <si>
+    <r>
+      <t>Local Rank</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7.5"/>
+        <color rgb="FF393939"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+  </si>
+  <si>
+    <t>PFO Reco Type</t>
+  </si>
+  <si>
+    <t>Available Tab</t>
+  </si>
+  <si>
+    <t>Locators</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Business Info</t>
+  </si>
+  <si>
+    <t>Site Specific Info</t>
+  </si>
+  <si>
+    <t>//td[@class='logoPho']</t>
+  </si>
+  <si>
+    <t>//input[@id='PinterestURL']</t>
+  </si>
+  <si>
+    <t>//input[@id='LinkedInURL']</t>
+  </si>
+  <si>
+    <t>//input[@id='InstagramURL']</t>
+  </si>
+  <si>
+    <t>//input[@id='FacebookURL']</t>
+  </si>
+  <si>
+    <t>//input[@id='ReservationsURL']</t>
+  </si>
+  <si>
+    <t>//input[@id='OrderAheadURL']</t>
+  </si>
+  <si>
+    <t>//input[@id='TwitterURL']</t>
+  </si>
+  <si>
+    <t>//input[@id='AppointmentURL']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='Description']</t>
+  </si>
+  <si>
+    <t>//input[@id='ChainName']</t>
+  </si>
+  <si>
+    <t>//input[@id='MenuURL']</t>
+  </si>
+  <si>
+    <t>//input[@id='BusinessURL']</t>
+  </si>
+  <si>
+    <t>//input[@id='WebSite']</t>
+  </si>
+  <si>
+    <t>//td[@class='coverPho']//img</t>
+  </si>
+  <si>
+    <t>Automation Test description</t>
+  </si>
+  <si>
+    <t>Auto Chain Name</t>
+  </si>
+  <si>
+    <t>www.automationtesting.com</t>
+  </si>
+  <si>
+    <t>www.automationpinterest.com</t>
+  </si>
+  <si>
+    <t>www.automationlinkedin.com</t>
+  </si>
+  <si>
+    <t>www.automationInsta.com</t>
+  </si>
+  <si>
+    <t>www.automationFacebook.com</t>
+  </si>
+  <si>
+    <t>www.automationreserve.com</t>
+  </si>
+  <si>
+    <t>www.automationOrder.com</t>
+  </si>
+  <si>
+    <t>www.automationtwitter.com</t>
+  </si>
+  <si>
+    <t>www.automationMenu.com</t>
+  </si>
+  <si>
+    <t>www.automationtest.com</t>
+  </si>
+  <si>
+    <t>www.automationAppointment.com</t>
+  </si>
+  <si>
+    <t>Basic Info</t>
+  </si>
+  <si>
+    <t>//input[@id='PhoneNumber']</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
   </si>
 </sst>
 </file>
@@ -472,7 +1184,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,16 +1243,88 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF393939"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="7.5"/>
+      <color rgb="FF393939"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF393939"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -548,12 +1332,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -579,6 +1378,48 @@
     </xf>
     <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="14" numFmtId="0" quotePrefix="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1033,7 +1874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>102</v>
       </c>
@@ -1049,8 +1890,8 @@
       <c r="E7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>135</v>
+      <c r="F7" s="13" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1060,6 +1901,232 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97167B2-7C0B-4E15-B189-0ACF08094BA1}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row ht="15.75" r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
+  <dimension ref="A1:H1048576"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="75.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row ht="15.75" r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1048576" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1048576" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2" xr:uid="{F1DC5D16-654A-4D10-A0DA-C3EC9A9CD3AC}"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF31050-A1CE-4806-A18B-82FAF036D110}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1101,7 +2168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B39C1-E271-4AB9-B9CD-EE7AE8CA71C2}">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -1280,15 +2347,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73840A65-FD3F-4FC7-8FDF-F89283B3CCE3}">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="A2:F7"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -1403,7 +2476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="30" r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row ht="45" r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>102</v>
       </c>
@@ -1420,7 +2493,7 @@
         <v>83</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2709,13 +3782,69 @@
       </c>
       <c r="G103" s="2"/>
     </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row ht="15.75" r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row ht="15.75" r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B111" t="s">
+        <v>137</v>
+      </c>
+      <c r="C111" t="s">
+        <v>138</v>
+      </c>
+      <c r="D111" t="s">
+        <v>139</v>
+      </c>
+      <c r="E111" t="s">
+        <v>140</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC4A950-02FB-4771-9093-D3B7699EE31D}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -2726,16 +3855,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2762,7 +3891,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>361</v>
       </c>
       <c r="C3" s="3">
         <v>2021</v>
@@ -2771,7 +3900,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>97</v>
+        <v>362</v>
       </c>
       <c r="F3" s="3">
         <v>2021</v>
@@ -2786,12 +3915,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149A45-147A-4908-8AC2-DFFA5E3623E7}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2800,16 +3929,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2833,19 +3962,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>134</v>
+        <v>361</v>
       </c>
       <c r="C3" s="3">
         <v>2021</v>
       </c>
       <c r="D3" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>136</v>
+        <v>362</v>
       </c>
       <c r="F3" s="3">
         <v>2021</v>
@@ -2860,7 +3989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83B1A1-2185-46E9-889B-398CF2C8D1EA}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2926,7 +4055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24410FF7-85D5-4227-A8AE-50DEA4701ACD}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2970,7 +4099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB44C4C-5432-437C-8705-E7CF64F0D75A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3012,7 +4141,827 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4209C4ED-F8DD-4D7E-8676-A272E14C1ECA}">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="43.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="51.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row ht="45" r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row ht="60" r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row ht="45" r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row ht="75" r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row ht="75" r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row ht="90" r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row ht="60" r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row ht="90" r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row ht="75" r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row ht="60" r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row ht="60" r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row ht="45" r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row ht="75" r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row ht="90" r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row ht="60" r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row ht="90" r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row ht="45" r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row ht="30" r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row ht="30" r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row ht="45" r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row ht="45" r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row ht="45" r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row ht="60" r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row ht="30" r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row ht="60" r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row ht="30" r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row ht="30" r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row ht="45" r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row ht="60" r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row ht="60" r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row ht="60" r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row ht="60" r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row ht="60" r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row ht="90" r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row ht="60" r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row ht="60" r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row ht="45" r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row ht="60" r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row ht="60" r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row ht="60" r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row ht="60" r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row ht="45" r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row ht="45" r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="75" r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row ht="75" r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row ht="90" r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row ht="60" r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row ht="60" r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row ht="60" r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row ht="90" r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row ht="75" r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row ht="60" r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row ht="60" r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row ht="75" r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row ht="45" r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row ht="60" r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7ABE9-23D1-483E-B366-FA33B4CC2FB7}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3055,7 +5004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB2C39-A780-44AF-8C3B-74F65247F33B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -3066,16 +5015,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3106,76 +5055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C76C6E-154C-4EE9-B021-C644C18DD456}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" r="1" s="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row ht="15.75" r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E35A7-13BB-4D66-BA23-E45FA9F5A588}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -3241,7 +5121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87E6707-7C93-426E-94F9-3A25A2415CB9}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -3314,7 +5194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3EA4CE-EDA7-4242-A743-BE83DBFF6070}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -3325,16 +5205,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3386,6 +5266,536 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674025F2-F54C-49C9-8F2E-05745518B6B9}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="30.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="33.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="15.75" r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row ht="15.75" r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="25" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row ht="15.75" r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row ht="15.75" r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row ht="15.75" r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row ht="15.75" r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="30"/>
+    </row>
+    <row ht="15.75" r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row ht="15.75" r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row ht="15.75" r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="D9" s="30"/>
+    </row>
+    <row ht="15.75" r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="30"/>
+    </row>
+    <row ht="15.75" r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="30"/>
+    </row>
+    <row ht="15.75" r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="30"/>
+    </row>
+    <row ht="15.75" r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="30"/>
+    </row>
+    <row ht="15.75" r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="30"/>
+    </row>
+    <row ht="15.75" r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="30"/>
+    </row>
+    <row ht="15.75" r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row ht="15.75" r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="30"/>
+    </row>
+    <row ht="15.75" r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="30"/>
+    </row>
+    <row ht="15.75" r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="30"/>
+    </row>
+    <row ht="15.75" r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row ht="15.75" r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row ht="15.75" r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="30"/>
+    </row>
+    <row ht="15.75" r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row ht="15.75" r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="30"/>
+    </row>
+    <row ht="15.75" r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="30"/>
+    </row>
+    <row ht="15.75" r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="30"/>
+    </row>
+    <row ht="15.75" r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="30"/>
+    </row>
+    <row ht="15.75" r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row ht="15.75" r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row ht="15.75" r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="30"/>
+    </row>
+    <row ht="15.75" r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row ht="15.75" r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="30"/>
+    </row>
+    <row ht="15.75" r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="30"/>
+    </row>
+    <row ht="15.75" r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="30"/>
+    </row>
+    <row ht="15.75" r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row ht="15.75" r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="D36" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C76C6E-154C-4EE9-B021-C644C18DD456}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" r="1" s="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row ht="15.75" r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F635368-BB2D-4072-8E80-91DBE792F8EF}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -3518,7 +5928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>102</v>
       </c>
@@ -3534,8 +5944,8 @@
       <c r="E7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>135</v>
+      <c r="F7" s="13" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3543,7 +5953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99D0056-9038-4B45-96BE-820C8A519FB7}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -3598,11 +6008,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245207A1-BB15-4AA9-AB10-62BB034F1692}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
@@ -3736,7 +6146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>102</v>
       </c>
@@ -3752,8 +6162,8 @@
       <c r="E7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>135</v>
+      <c r="F7" s="13" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3762,7 +6172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0C12BF-7E83-4532-A128-E57EBFF1BF2D}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3816,7 +6226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2DE816-A9A4-4743-BF9C-2DEBCA2D1E71}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3866,230 +6276,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97167B2-7C0B-4E15-B189-0ACF08094BA1}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row ht="15.75" r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66296A9-7A5C-4ED7-A4A1-E7DD7300B70D}">
-  <dimension ref="A1:H1048576"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="75.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row ht="15.75" r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="1048576" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G1048576" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2" xr:uid="{F1DC5D16-654A-4D10-A0DA-C3EC9A9CD3AC}"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="300"/>
-</worksheet>
 </file>